--- a/tools/vn168/data/stk.xlsx
+++ b/tools/vn168/data/stk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClaimGames\tools\vn168\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giaminh/Downloads/ClaimGames/tools/vn168/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7881ED7D-EA64-4D99-B0CC-08D1217436DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1979C1-16C2-BA4B-8DB4-6E27F3443CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{66964592-EB3B-45B3-852A-04B7DEFCF64A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{66964592-EB3B-45B3-852A-04B7DEFCF64A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="268">
   <si>
     <t>profile</t>
   </si>
@@ -192,9 +192,6 @@
     <t>NGUYEN ANH TU</t>
   </si>
   <si>
-    <t>KIEU DUC PHU</t>
-  </si>
-  <si>
     <t>HOANG QUOC DANG</t>
   </si>
   <si>
@@ -204,551 +201,641 @@
     <t>DAO MY</t>
   </si>
   <si>
-    <t>23452222221562</t>
-  </si>
-  <si>
-    <t>0847511202</t>
-  </si>
-  <si>
-    <t>12343333330957</t>
-  </si>
-  <si>
-    <t>12347777771433</t>
-  </si>
-  <si>
-    <t>12348888887416</t>
-  </si>
-  <si>
-    <t>23451111116705</t>
-  </si>
-  <si>
-    <t>23452222225643</t>
-  </si>
-  <si>
-    <t>23453333334136</t>
-  </si>
-  <si>
-    <t>23453333339277</t>
-  </si>
-  <si>
-    <t>23454444441262</t>
-  </si>
-  <si>
-    <t>23454444441265</t>
-  </si>
-  <si>
-    <t>12346666660686</t>
-  </si>
-  <si>
-    <t>12346666664800</t>
-  </si>
-  <si>
-    <t>23451111118925</t>
-  </si>
-  <si>
-    <t>23452222228628</t>
-  </si>
-  <si>
-    <t>23453333332637</t>
-  </si>
-  <si>
-    <t>23453333336897</t>
-  </si>
-  <si>
-    <t>23453333339348</t>
-  </si>
-  <si>
-    <t>23457777773931</t>
-  </si>
-  <si>
-    <t>23457777774637</t>
-  </si>
-  <si>
-    <t>23454444442475</t>
-  </si>
-  <si>
-    <t>23454444445767</t>
-  </si>
-  <si>
-    <t>23457777773893</t>
-  </si>
-  <si>
-    <t>23459999998351</t>
-  </si>
-  <si>
-    <t>34561111118814</t>
-  </si>
-  <si>
-    <t>34565555556544</t>
-  </si>
-  <si>
-    <t>56785555550091</t>
-  </si>
-  <si>
-    <t>0956935346995</t>
-  </si>
-  <si>
-    <t>12342222229436</t>
-  </si>
-  <si>
-    <t>12347777773819</t>
-  </si>
-  <si>
-    <t>12347777776513</t>
-  </si>
-  <si>
-    <t>12347777779236</t>
-  </si>
-  <si>
-    <t>12347777779559</t>
-  </si>
-  <si>
-    <t>12349999996957</t>
-  </si>
-  <si>
-    <t>23451111110504</t>
-  </si>
-  <si>
-    <t>23451111113989</t>
-  </si>
-  <si>
-    <t>23451111116800</t>
-  </si>
-  <si>
-    <t>23451111118130</t>
-  </si>
-  <si>
-    <t>23452222220976</t>
-  </si>
-  <si>
-    <t>23452222225061</t>
-  </si>
-  <si>
-    <t>12341111112775</t>
-  </si>
-  <si>
-    <t>12348888880851</t>
-  </si>
-  <si>
-    <t>12349999997744</t>
-  </si>
-  <si>
-    <t>23451111113429</t>
-  </si>
-  <si>
-    <t>23451111118612</t>
-  </si>
-  <si>
-    <t>23451111119461</t>
-  </si>
-  <si>
-    <t>23453333335084</t>
-  </si>
-  <si>
-    <t>23454444445455</t>
-  </si>
-  <si>
-    <t>23458888885787</t>
-  </si>
-  <si>
-    <t>23459999993930</t>
-  </si>
-  <si>
-    <t>23454444445893</t>
-  </si>
-  <si>
-    <t>23457777771817</t>
-  </si>
-  <si>
-    <t>23458888882722</t>
-  </si>
-  <si>
-    <t>34561111110076</t>
-  </si>
-  <si>
-    <t>34563333332489</t>
-  </si>
-  <si>
-    <t>34564444442983</t>
-  </si>
-  <si>
-    <t>34565555554266</t>
-  </si>
-  <si>
-    <t>34565555557762</t>
-  </si>
-  <si>
-    <t>34569999990237</t>
-  </si>
-  <si>
-    <t>34569999993448</t>
-  </si>
-  <si>
-    <t>920770301</t>
-  </si>
-  <si>
-    <t>581263144</t>
-  </si>
-  <si>
-    <t>704802870</t>
-  </si>
-  <si>
-    <t>401913386</t>
-  </si>
-  <si>
-    <t>972799016</t>
-  </si>
-  <si>
-    <t>243486092</t>
-  </si>
-  <si>
-    <t>397309073</t>
-  </si>
-  <si>
-    <t>823233174</t>
-  </si>
-  <si>
-    <t>544698117</t>
-  </si>
-  <si>
-    <t>431038907</t>
-  </si>
-  <si>
-    <t>292849299</t>
-  </si>
-  <si>
-    <t>593111069</t>
-  </si>
-  <si>
-    <t>205524322</t>
-  </si>
-  <si>
-    <t>643665067</t>
-  </si>
-  <si>
-    <t>457394864</t>
-  </si>
-  <si>
-    <t>140399490</t>
-  </si>
-  <si>
-    <t>658143285</t>
-  </si>
-  <si>
-    <t>271655921</t>
-  </si>
-  <si>
-    <t>487280163</t>
-  </si>
-  <si>
-    <t>240520776</t>
-  </si>
-  <si>
-    <t>962502983</t>
-  </si>
-  <si>
-    <t>453103222</t>
-  </si>
-  <si>
-    <t>143143253</t>
-  </si>
-  <si>
-    <t>744707531</t>
-  </si>
-  <si>
-    <t>794467945</t>
-  </si>
-  <si>
-    <t>700171998</t>
-  </si>
-  <si>
-    <t>755714392</t>
-  </si>
-  <si>
-    <t>284277021</t>
-  </si>
-  <si>
-    <t>281582136</t>
-  </si>
-  <si>
-    <t>263061936</t>
-  </si>
-  <si>
-    <t>571991052</t>
-  </si>
-  <si>
-    <t>882583955</t>
-  </si>
-  <si>
-    <t>579525084</t>
-  </si>
-  <si>
-    <t>996333186</t>
-  </si>
-  <si>
-    <t>124400257</t>
-  </si>
-  <si>
-    <t>272747479</t>
-  </si>
-  <si>
-    <t>336531780</t>
-  </si>
-  <si>
-    <t>982723166</t>
-  </si>
-  <si>
-    <t>314056234</t>
-  </si>
-  <si>
-    <t>168032475</t>
-  </si>
-  <si>
-    <t>204332627</t>
-  </si>
-  <si>
-    <t>132255448</t>
-  </si>
-  <si>
-    <t>868839114</t>
-  </si>
-  <si>
-    <t>986106343</t>
-  </si>
-  <si>
-    <t>259897960</t>
-  </si>
-  <si>
-    <t>187114333</t>
-  </si>
-  <si>
-    <t>389972090</t>
-  </si>
-  <si>
-    <t>588287311</t>
-  </si>
-  <si>
-    <t>491334792</t>
-  </si>
-  <si>
-    <t>914322190</t>
-  </si>
-  <si>
-    <t>448170142</t>
-  </si>
-  <si>
-    <t>238130293</t>
-  </si>
-  <si>
-    <t>818123589</t>
-  </si>
-  <si>
-    <t>647596344</t>
-  </si>
-  <si>
-    <t>243384879</t>
-  </si>
-  <si>
-    <t>321369674</t>
-  </si>
-  <si>
-    <t>460500526</t>
-  </si>
-  <si>
-    <t>969102781</t>
-  </si>
-  <si>
-    <t>978454691</t>
-  </si>
-  <si>
-    <t>956911495</t>
-  </si>
-  <si>
-    <t>userJqVlT@gmail.com</t>
-  </si>
-  <si>
-    <t>userNQPrk@gmail.com</t>
-  </si>
-  <si>
-    <t>userNpaQm@gmail.com</t>
-  </si>
-  <si>
-    <t>userzCcSh@gmail.com</t>
-  </si>
-  <si>
-    <t>usertToTx@gmail.com</t>
-  </si>
-  <si>
-    <t>userYoGSq@gmail.com</t>
-  </si>
-  <si>
-    <t>usernGgpv@gmail.com</t>
-  </si>
-  <si>
-    <t>userHePsu@gmail.com</t>
-  </si>
-  <si>
-    <t>userdkKu4@gmail.com</t>
-  </si>
-  <si>
-    <t>userVX9HH@gmail.com</t>
-  </si>
-  <si>
-    <t>useru6T3d@gmail.com</t>
-  </si>
-  <si>
-    <t>userQUhYa@gmail.com</t>
-  </si>
-  <si>
-    <t>useryOQDC@gmail.com</t>
-  </si>
-  <si>
-    <t>usergm0Av@gmail.com</t>
-  </si>
-  <si>
-    <t>userBEX1g@gmail.com</t>
-  </si>
-  <si>
-    <t>user7jThy@gmail.com</t>
-  </si>
-  <si>
-    <t>userHwleA@gmail.com</t>
-  </si>
-  <si>
-    <t>userIq4gy@gmail.com</t>
-  </si>
-  <si>
-    <t>userVqNUn@gmail.com</t>
-  </si>
-  <si>
-    <t>userT6iPx@gmail.com</t>
-  </si>
-  <si>
-    <t>userWDj1C@gmail.com</t>
-  </si>
-  <si>
-    <t>userNm7D2@gmail.com</t>
-  </si>
-  <si>
-    <t>userwPRih@gmail.com</t>
-  </si>
-  <si>
-    <t>userrp3HU@gmail.com</t>
-  </si>
-  <si>
-    <t>usernqUR3@gmail.com</t>
-  </si>
-  <si>
-    <t>userwSic4@gmail.com</t>
-  </si>
-  <si>
-    <t>userQInfh@gmail.com</t>
-  </si>
-  <si>
-    <t>user07bAN@gmail.com</t>
-  </si>
-  <si>
-    <t>userIzts7@gmail.com</t>
-  </si>
-  <si>
-    <t>userFJAYr@gmail.com</t>
-  </si>
-  <si>
-    <t>usermyvTh@gmail.com</t>
-  </si>
-  <si>
-    <t>user0HfHF@gmail.com</t>
-  </si>
-  <si>
-    <t>userttgsW@gmail.com</t>
-  </si>
-  <si>
-    <t>uservqz9p@gmail.com</t>
-  </si>
-  <si>
-    <t>userqkhm8@gmail.com</t>
-  </si>
-  <si>
-    <t>userlZI2x@gmail.com</t>
-  </si>
-  <si>
-    <t>userCjzPQ@gmail.com</t>
-  </si>
-  <si>
-    <t>userAccH2@gmail.com</t>
-  </si>
-  <si>
-    <t>useryqoYD@gmail.com</t>
-  </si>
-  <si>
-    <t>userbUdnI@gmail.com</t>
-  </si>
-  <si>
-    <t>user9ucC4@gmail.com</t>
-  </si>
-  <si>
-    <t>userN3bS6@gmail.com</t>
-  </si>
-  <si>
-    <t>userFvEcj@gmail.com</t>
-  </si>
-  <si>
-    <t>user40DWi@gmail.com</t>
-  </si>
-  <si>
-    <t>user402Mf@gmail.com</t>
-  </si>
-  <si>
-    <t>userjAf1R@gmail.com</t>
-  </si>
-  <si>
-    <t>user8N1Ci@gmail.com</t>
-  </si>
-  <si>
-    <t>user0OB49@gmail.com</t>
-  </si>
-  <si>
-    <t>userD0ret@gmail.com</t>
-  </si>
-  <si>
-    <t>userMkfIn@gmail.com</t>
-  </si>
-  <si>
-    <t>userqfVAz@gmail.com</t>
-  </si>
-  <si>
-    <t>userz6rDj@gmail.com</t>
-  </si>
-  <si>
-    <t>userW3cXD@gmail.com</t>
-  </si>
-  <si>
-    <t>usert4XfA@gmail.com</t>
-  </si>
-  <si>
-    <t>user8mLn2@gmail.com</t>
-  </si>
-  <si>
-    <t>userZUzYu@gmail.com</t>
-  </si>
-  <si>
-    <t>userGrFNb@gmail.com</t>
-  </si>
-  <si>
-    <t>usermSazP@gmail.com</t>
-  </si>
-  <si>
-    <t>user8tklD@gmail.com</t>
-  </si>
-  <si>
-    <t>userV9psI@gmail.com</t>
+    <t>HOANG QUOC DAT</t>
+  </si>
+  <si>
+    <t>Y PHAT NIE</t>
+  </si>
+  <si>
+    <t>HOANG XUAN DE</t>
+  </si>
+  <si>
+    <t>VO THI NGOC THAO</t>
+  </si>
+  <si>
+    <t>PHAM TRAN VUONG ANH</t>
+  </si>
+  <si>
+    <t>PHAM THI NGA</t>
+  </si>
+  <si>
+    <t>PHAM HUU MINH KIET</t>
+  </si>
+  <si>
+    <t>NGUYEN THI THANH HUYEN</t>
+  </si>
+  <si>
+    <t>NGUYEN THI HO</t>
+  </si>
+  <si>
+    <t>6165142187632</t>
+  </si>
+  <si>
+    <t>6572098646662</t>
+  </si>
+  <si>
+    <t>6823028866462</t>
+  </si>
+  <si>
+    <t>7368586563492</t>
+  </si>
+  <si>
+    <t>12341111117437</t>
+  </si>
+  <si>
+    <t>12343333332199</t>
+  </si>
+  <si>
+    <t>12343333334155</t>
+  </si>
+  <si>
+    <t>23453333332475</t>
+  </si>
+  <si>
+    <t>23453333334364</t>
+  </si>
+  <si>
+    <t>23452222220947</t>
+  </si>
+  <si>
+    <t>23452222223041</t>
+  </si>
+  <si>
+    <t>23452222224321</t>
+  </si>
+  <si>
+    <t>23453333330821</t>
+  </si>
+  <si>
+    <t>23453333335825</t>
+  </si>
+  <si>
+    <t>23453333337048</t>
+  </si>
+  <si>
+    <t>23453333338996</t>
+  </si>
+  <si>
+    <t>23453333339519</t>
+  </si>
+  <si>
+    <t>23454444440809</t>
+  </si>
+  <si>
+    <t>23459999994367</t>
+  </si>
+  <si>
+    <t>23459999996467</t>
+  </si>
+  <si>
+    <t>23459999996669</t>
+  </si>
+  <si>
+    <t>23459999996998</t>
+  </si>
+  <si>
+    <t>34561111112088</t>
+  </si>
+  <si>
+    <t>34563333335692</t>
+  </si>
+  <si>
+    <t>34564444440067</t>
+  </si>
+  <si>
+    <t>34564444441539</t>
+  </si>
+  <si>
+    <t>34564444441845</t>
+  </si>
+  <si>
+    <t>34564444442056</t>
+  </si>
+  <si>
+    <t>34565555551528</t>
+  </si>
+  <si>
+    <t>23453333331893</t>
+  </si>
+  <si>
+    <t>23453333339663</t>
+  </si>
+  <si>
+    <t>23454444449574</t>
+  </si>
+  <si>
+    <t>23457777776036</t>
+  </si>
+  <si>
+    <t>23457777776915</t>
+  </si>
+  <si>
+    <t>23457777778256</t>
+  </si>
+  <si>
+    <t>23452222223361</t>
+  </si>
+  <si>
+    <t>23453333330317</t>
+  </si>
+  <si>
+    <t>23453333331238</t>
+  </si>
+  <si>
+    <t>23453333337854</t>
+  </si>
+  <si>
+    <t>23454444441644</t>
+  </si>
+  <si>
+    <t>23454444443564</t>
+  </si>
+  <si>
+    <t>23457777770165</t>
+  </si>
+  <si>
+    <t>23457777770414</t>
+  </si>
+  <si>
+    <t>23457777770543</t>
+  </si>
+  <si>
+    <t>23457777771785</t>
+  </si>
+  <si>
+    <t>23457777771794</t>
+  </si>
+  <si>
+    <t>23457777773378</t>
+  </si>
+  <si>
+    <t>23458888880791</t>
+  </si>
+  <si>
+    <t>23458888885877</t>
+  </si>
+  <si>
+    <t>23459999993808</t>
+  </si>
+  <si>
+    <t>34561111112328</t>
+  </si>
+  <si>
+    <t>34561111114177</t>
+  </si>
+  <si>
+    <t>23452222225079</t>
+  </si>
+  <si>
+    <t>23452222225206</t>
+  </si>
+  <si>
+    <t>23452222226597</t>
+  </si>
+  <si>
+    <t>23453333330617</t>
+  </si>
+  <si>
+    <t>23453333334786</t>
+  </si>
+  <si>
+    <t>34561111112588</t>
+  </si>
+  <si>
+    <t>34561111113779</t>
+  </si>
+  <si>
+    <t>34562222226585</t>
+  </si>
+  <si>
+    <t>34563333332573</t>
+  </si>
+  <si>
+    <t>34563333332978</t>
+  </si>
+  <si>
+    <t>34563333334110</t>
+  </si>
+  <si>
+    <t>34563333337160</t>
+  </si>
+  <si>
+    <t>34564444442044</t>
+  </si>
+  <si>
+    <t>45676666660468</t>
+  </si>
+  <si>
+    <t>56787777775371</t>
+  </si>
+  <si>
+    <t>831107628</t>
+  </si>
+  <si>
+    <t>732554677</t>
+  </si>
+  <si>
+    <t>675119804</t>
+  </si>
+  <si>
+    <t>622079984</t>
+  </si>
+  <si>
+    <t>753736562</t>
+  </si>
+  <si>
+    <t>118935120</t>
+  </si>
+  <si>
+    <t>926790076</t>
+  </si>
+  <si>
+    <t>580437524</t>
+  </si>
+  <si>
+    <t>434581838</t>
+  </si>
+  <si>
+    <t>386535028</t>
+  </si>
+  <si>
+    <t>436740963</t>
+  </si>
+  <si>
+    <t>620559179</t>
+  </si>
+  <si>
+    <t>551299144</t>
+  </si>
+  <si>
+    <t>632640585</t>
+  </si>
+  <si>
+    <t>216033374</t>
+  </si>
+  <si>
+    <t>697121637</t>
+  </si>
+  <si>
+    <t>636175264</t>
+  </si>
+  <si>
+    <t>864207893</t>
+  </si>
+  <si>
+    <t>794434709</t>
+  </si>
+  <si>
+    <t>963157924</t>
+  </si>
+  <si>
+    <t>950556492</t>
+  </si>
+  <si>
+    <t>849420401</t>
+  </si>
+  <si>
+    <t>676270283</t>
+  </si>
+  <si>
+    <t>336179187</t>
+  </si>
+  <si>
+    <t>254904311</t>
+  </si>
+  <si>
+    <t>371661919</t>
+  </si>
+  <si>
+    <t>678840488</t>
+  </si>
+  <si>
+    <t>991085618</t>
+  </si>
+  <si>
+    <t>916454282</t>
+  </si>
+  <si>
+    <t>418376418</t>
+  </si>
+  <si>
+    <t>187827586</t>
+  </si>
+  <si>
+    <t>519368554</t>
+  </si>
+  <si>
+    <t>682738919</t>
+  </si>
+  <si>
+    <t>452736117</t>
+  </si>
+  <si>
+    <t>319845222</t>
+  </si>
+  <si>
+    <t>512334771</t>
+  </si>
+  <si>
+    <t>696630868</t>
+  </si>
+  <si>
+    <t>225936429</t>
+  </si>
+  <si>
+    <t>299123830</t>
+  </si>
+  <si>
+    <t>149868973</t>
+  </si>
+  <si>
+    <t>825958715</t>
+  </si>
+  <si>
+    <t>258941987</t>
+  </si>
+  <si>
+    <t>811054298</t>
+  </si>
+  <si>
+    <t>894479170</t>
+  </si>
+  <si>
+    <t>350365873</t>
+  </si>
+  <si>
+    <t>265738298</t>
+  </si>
+  <si>
+    <t>578819461</t>
+  </si>
+  <si>
+    <t>491932956</t>
+  </si>
+  <si>
+    <t>267700758</t>
+  </si>
+  <si>
+    <t>738927550</t>
+  </si>
+  <si>
+    <t>142849660</t>
+  </si>
+  <si>
+    <t>275798564</t>
+  </si>
+  <si>
+    <t>951845015</t>
+  </si>
+  <si>
+    <t>117292103</t>
+  </si>
+  <si>
+    <t>473012213</t>
+  </si>
+  <si>
+    <t>819212655</t>
+  </si>
+  <si>
+    <t>280170698</t>
+  </si>
+  <si>
+    <t>848178167</t>
+  </si>
+  <si>
+    <t>499174105</t>
+  </si>
+  <si>
+    <t>384313760</t>
+  </si>
+  <si>
+    <t>429546953</t>
+  </si>
+  <si>
+    <t>689670747</t>
+  </si>
+  <si>
+    <t>907061578</t>
+  </si>
+  <si>
+    <t>610232695</t>
+  </si>
+  <si>
+    <t>537212243</t>
+  </si>
+  <si>
+    <t>990759217</t>
+  </si>
+  <si>
+    <t>946514021</t>
+  </si>
+  <si>
+    <t>userCkPRVGv6P0@gmail.com</t>
+  </si>
+  <si>
+    <t>useruMoq6IiOOR@gmail.com</t>
+  </si>
+  <si>
+    <t>userocF3azlDAG@gmail.com</t>
+  </si>
+  <si>
+    <t>userYAIvZaKErA@gmail.com</t>
+  </si>
+  <si>
+    <t>userc5dHLiqSzc@gmail.com</t>
+  </si>
+  <si>
+    <t>user5heBkKPAbv@gmail.com</t>
+  </si>
+  <si>
+    <t>useruy5uN5BR8p@gmail.com</t>
+  </si>
+  <si>
+    <t>userBX0m08cj7y@gmail.com</t>
+  </si>
+  <si>
+    <t>userz0N4MzvV9k@gmail.com</t>
+  </si>
+  <si>
+    <t>userMdsaFZwGYZ@gmail.com</t>
+  </si>
+  <si>
+    <t>userhXBCHD64oa@gmail.com</t>
+  </si>
+  <si>
+    <t>user0UlCjThfUO@gmail.com</t>
+  </si>
+  <si>
+    <t>userjiHly2CIhy@gmail.com</t>
+  </si>
+  <si>
+    <t>userqErlhlmTlF@gmail.com</t>
+  </si>
+  <si>
+    <t>userrzmCHOERDx@gmail.com</t>
+  </si>
+  <si>
+    <t>userhykMciXzKr@gmail.com</t>
+  </si>
+  <si>
+    <t>usereMEaJZPuly@gmail.com</t>
+  </si>
+  <si>
+    <t>user6cXYEnxP2Q@gmail.com</t>
+  </si>
+  <si>
+    <t>userHXnKNTrIjC@gmail.com</t>
+  </si>
+  <si>
+    <t>userDRaqBUVVgt@gmail.com</t>
+  </si>
+  <si>
+    <t>userdQBpf1UyRK@gmail.com</t>
+  </si>
+  <si>
+    <t>usery52WlE5jkH@gmail.com</t>
+  </si>
+  <si>
+    <t>user4AchJHcgHx@gmail.com</t>
+  </si>
+  <si>
+    <t>userblDv0COqtK@gmail.com</t>
+  </si>
+  <si>
+    <t>userQmNaqUMHGk@gmail.com</t>
+  </si>
+  <si>
+    <t>userWezaM3ccje@gmail.com</t>
+  </si>
+  <si>
+    <t>user5tVkcbhIWc@gmail.com</t>
+  </si>
+  <si>
+    <t>usermiLAxsq2FM@gmail.com</t>
+  </si>
+  <si>
+    <t>user5QV9lyA9qs@gmail.com</t>
+  </si>
+  <si>
+    <t>userYS2N4kceRi@gmail.com</t>
+  </si>
+  <si>
+    <t>userjKbmb0uxEG@gmail.com</t>
+  </si>
+  <si>
+    <t>userBC02cXIKRv@gmail.com</t>
+  </si>
+  <si>
+    <t>userJQQWT5Ljsx@gmail.com</t>
+  </si>
+  <si>
+    <t>userkADDeNPpyz@gmail.com</t>
+  </si>
+  <si>
+    <t>userQUqUfmeSQ3@gmail.com</t>
+  </si>
+  <si>
+    <t>user0oTHpLn9Ew@gmail.com</t>
+  </si>
+  <si>
+    <t>user4W5d66thHZ@gmail.com</t>
+  </si>
+  <si>
+    <t>usero3qm5GmedC@gmail.com</t>
+  </si>
+  <si>
+    <t>userwpsgWbM9zd@gmail.com</t>
+  </si>
+  <si>
+    <t>userN1YUVuEpvr@gmail.com</t>
+  </si>
+  <si>
+    <t>userl59hkzUns9@gmail.com</t>
+  </si>
+  <si>
+    <t>userzoDaCcLSCv@gmail.com</t>
+  </si>
+  <si>
+    <t>user9woh78RCMm@gmail.com</t>
+  </si>
+  <si>
+    <t>userkqGo1mBcHy@gmail.com</t>
+  </si>
+  <si>
+    <t>userwChuaHnPLm@gmail.com</t>
+  </si>
+  <si>
+    <t>userQtmPoOwUES@gmail.com</t>
+  </si>
+  <si>
+    <t>userwrwHXsAwLC@gmail.com</t>
+  </si>
+  <si>
+    <t>user8se255CUPL@gmail.com</t>
+  </si>
+  <si>
+    <t>userhnm6TFXjr7@gmail.com</t>
+  </si>
+  <si>
+    <t>userOLeNH2gkvz@gmail.com</t>
+  </si>
+  <si>
+    <t>user1kLUOvcjJZ@gmail.com</t>
+  </si>
+  <si>
+    <t>userfruSYpNx9G@gmail.com</t>
+  </si>
+  <si>
+    <t>userkmymUpYvC3@gmail.com</t>
+  </si>
+  <si>
+    <t>userSX6ejrFRwZ@gmail.com</t>
+  </si>
+  <si>
+    <t>userNKmRAPyd9V@gmail.com</t>
+  </si>
+  <si>
+    <t>userqZ6hQpLiH7@gmail.com</t>
+  </si>
+  <si>
+    <t>user15jSoSx3HI@gmail.com</t>
+  </si>
+  <si>
+    <t>userFZz3qey0v2@gmail.com</t>
+  </si>
+  <si>
+    <t>userhhX1G6E64j@gmail.com</t>
+  </si>
+  <si>
+    <t>useriS1en83f9r@gmail.com</t>
+  </si>
+  <si>
+    <t>userWkEUjisPXA@gmail.com</t>
+  </si>
+  <si>
+    <t>userfvOXAd6eMK@gmail.com</t>
+  </si>
+  <si>
+    <t>userXkFqyYzEKb@gmail.com</t>
+  </si>
+  <si>
+    <t>userB94ck5gOz4@gmail.com</t>
+  </si>
+  <si>
+    <t>userXXWefaCxdh@gmail.com</t>
+  </si>
+  <si>
+    <t>userwN3aH9Q4Eu@gmail.com</t>
+  </si>
+  <si>
+    <t>useriUwPPYvGLi@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,6 +855,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -790,11 +883,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1109,22 +1203,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873D7A48-6AAD-4875-977B-B5247510D6AE}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,1024 +1238,1143 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>52</v>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>53</v>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>53</v>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>53</v>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>53</v>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>53</v>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>53</v>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>53</v>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>53</v>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>53</v>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>53</v>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>54</v>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>54</v>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>54</v>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>54</v>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>54</v>
+    <row r="17" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>54</v>
+    <row r="18" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>54</v>
+    <row r="19" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>54</v>
+    <row r="20" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>54</v>
+    <row r="21" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>55</v>
+    <row r="22" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>55</v>
+    <row r="23" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>55</v>
+    <row r="24" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>55</v>
+    <row r="25" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E25" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>55</v>
+    <row r="26" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>55</v>
+    <row r="27" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>55</v>
+    <row r="28" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>56</v>
+    <row r="29" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>56</v>
+    <row r="30" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>56</v>
+    <row r="31" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>56</v>
+    <row r="32" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>56</v>
+    <row r="33" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>56</v>
+    <row r="34" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>56</v>
+    <row r="35" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>56</v>
+    <row r="36" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E36" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>56</v>
+    <row r="37" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="E37" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>56</v>
+    <row r="38" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>56</v>
+    <row r="39" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>56</v>
+    <row r="40" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>56</v>
+    <row r="41" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="E41" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>57</v>
+    <row r="42" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>57</v>
+    <row r="43" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="E43" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>57</v>
+    <row r="44" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>57</v>
+    <row r="45" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>57</v>
+    <row r="46" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>57</v>
+    <row r="47" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>57</v>
+    <row r="48" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="E48" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>57</v>
+    <row r="49" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>57</v>
+    <row r="50" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E50" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>57</v>
+    <row r="51" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E51" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>58</v>
+    <row r="52" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E52" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>58</v>
+    <row r="53" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="E53" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>58</v>
+    <row r="54" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E54" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>58</v>
+    <row r="55" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E55" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>58</v>
+    <row r="56" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="E56" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>58</v>
+    <row r="57" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E57" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>58</v>
+    <row r="58" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E58" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>58</v>
+    <row r="59" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E59" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>58</v>
+    <row r="60" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="E60" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>58</v>
+    <row r="61" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="E61" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" t="s">
+        <v>261</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E63" t="s">
+        <v>262</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" t="s">
+        <v>263</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" t="s">
+        <v>264</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66" t="s">
+        <v>265</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" t="s">
+        <v>266</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E68" t="s">
+        <v>267</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tools/vn168/data/stk.xlsx
+++ b/tools/vn168/data/stk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClaimGames\tools\vn168\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BB6B4A-D341-4450-A378-999CEF1EC59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160873C4-FAFD-48D7-8491-4187554AC14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{66964592-EB3B-45B3-852A-04B7DEFCF64A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="862">
   <si>
     <t>profile</t>
   </si>
@@ -228,562 +228,2392 @@
     <t>Cà Mau</t>
   </si>
   <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>056</t>
-  </si>
-  <si>
-    <t>061</t>
-  </si>
-  <si>
-    <t>071</t>
-  </si>
-  <si>
-    <t>076</t>
-  </si>
-  <si>
-    <t>085</t>
-  </si>
-  <si>
-    <t>087</t>
-  </si>
-  <si>
-    <t>user9hx2OkzDqy@gmail.com</t>
-  </si>
-  <si>
-    <t>userUEPJFoGGgo@gmail.com</t>
-  </si>
-  <si>
-    <t>userlaS4M7aloY@gmail.com</t>
-  </si>
-  <si>
-    <t>userw7qzjmnss0@gmail.com</t>
-  </si>
-  <si>
-    <t>userDNIcz1q8ho@gmail.com</t>
-  </si>
-  <si>
-    <t>usereP0uxjfk87@gmail.com</t>
-  </si>
-  <si>
-    <t>uservi8uXMk0gJ@gmail.com</t>
-  </si>
-  <si>
-    <t>userASlMXBUQYB@gmail.com</t>
-  </si>
-  <si>
-    <t>userjO4AFR1nhg@gmail.com</t>
-  </si>
-  <si>
-    <t>userlluvnSnJHE@gmail.com</t>
-  </si>
-  <si>
-    <t>userrJOcHpKODt@gmail.com</t>
-  </si>
-  <si>
-    <t>userbgr0e4ZjQl@gmail.com</t>
-  </si>
-  <si>
-    <t>userDf3JXtX6gB@gmail.com</t>
-  </si>
-  <si>
-    <t>userVjC3EKzQ1W@gmail.com</t>
-  </si>
-  <si>
-    <t>user73iEpSk1fV@gmail.com</t>
-  </si>
-  <si>
-    <t>usereYkZOMEcs0@gmail.com</t>
-  </si>
-  <si>
-    <t>userlM255mgZ0y@gmail.com</t>
-  </si>
-  <si>
-    <t>userKdUx4m1PWD@gmail.com</t>
-  </si>
-  <si>
-    <t>userBW2n6PtuZO@gmail.com</t>
-  </si>
-  <si>
-    <t>userzSTpFkqqmy@gmail.com</t>
-  </si>
-  <si>
-    <t>userlxhBIhvPTz@gmail.com</t>
-  </si>
-  <si>
-    <t>userJVhFMpDChR@gmail.com</t>
-  </si>
-  <si>
-    <t>usergzy8hhzPPW@gmail.com</t>
-  </si>
-  <si>
-    <t>userszWkpLSazE@gmail.com</t>
-  </si>
-  <si>
-    <t>usertE78tWhzpd@gmail.com</t>
-  </si>
-  <si>
-    <t>useruE3XECmW8I@gmail.com</t>
-  </si>
-  <si>
-    <t>userkvIaCi9IMu@gmail.com</t>
-  </si>
-  <si>
-    <t>userkW6WAvQsWL@gmail.com</t>
-  </si>
-  <si>
-    <t>userXuoOQMDKkr@gmail.com</t>
-  </si>
-  <si>
-    <t>userR6i6PrlhQR@gmail.com</t>
-  </si>
-  <si>
-    <t>userE4ApcsbhKZ@gmail.com</t>
-  </si>
-  <si>
-    <t>userksamNOfjuk@gmail.com</t>
-  </si>
-  <si>
-    <t>user3pfb82JXrW@gmail.com</t>
-  </si>
-  <si>
-    <t>uservQ7YXKbn9t@gmail.com</t>
-  </si>
-  <si>
-    <t>userYsPlsUbzfC@gmail.com</t>
-  </si>
-  <si>
-    <t>userF8CxyxDqiM@gmail.com</t>
-  </si>
-  <si>
-    <t>user3RuSznIiHW@gmail.com</t>
-  </si>
-  <si>
-    <t>userrmLv5mXXfa@gmail.com</t>
-  </si>
-  <si>
-    <t>userd7wmuTWGQO@gmail.com</t>
-  </si>
-  <si>
-    <t>userkfcTNJW5cv@gmail.com</t>
-  </si>
-  <si>
-    <t>userOe00PNAzpW@gmail.com</t>
-  </si>
-  <si>
-    <t>usersNwFlaTg8A@gmail.com</t>
-  </si>
-  <si>
-    <t>userEkiLcvLy3e@gmail.com</t>
-  </si>
-  <si>
-    <t>userAWjhy77zeJ@gmail.com</t>
-  </si>
-  <si>
-    <t>userajTEtyPAWK@gmail.com</t>
-  </si>
-  <si>
-    <t>useruGmSuRpLup@gmail.com</t>
-  </si>
-  <si>
-    <t>userDmpD87zdRV@gmail.com</t>
-  </si>
-  <si>
-    <t>userLCicoLoFAH@gmail.com</t>
-  </si>
-  <si>
-    <t>user55parJmgOK@gmail.com</t>
-  </si>
-  <si>
-    <t>userqgcMuYEb9p@gmail.com</t>
-  </si>
-  <si>
-    <t>userKChWzPaWeq@gmail.com</t>
-  </si>
-  <si>
-    <t>userxcZePvYuZa@gmail.com</t>
-  </si>
-  <si>
-    <t>user1GtTXYJNRR@gmail.com</t>
-  </si>
-  <si>
-    <t>980327583</t>
-  </si>
-  <si>
-    <t>727157544</t>
-  </si>
-  <si>
-    <t>526124814</t>
-  </si>
-  <si>
-    <t>432191142</t>
-  </si>
-  <si>
-    <t>503177948</t>
-  </si>
-  <si>
-    <t>894415544</t>
-  </si>
-  <si>
-    <t>615094423</t>
-  </si>
-  <si>
-    <t>180993000</t>
-  </si>
-  <si>
-    <t>815608641</t>
-  </si>
-  <si>
-    <t>405299992</t>
-  </si>
-  <si>
-    <t>787461392</t>
-  </si>
-  <si>
-    <t>626414594</t>
-  </si>
-  <si>
-    <t>303655050</t>
-  </si>
-  <si>
-    <t>696309712</t>
-  </si>
-  <si>
-    <t>641363959</t>
-  </si>
-  <si>
-    <t>961585446</t>
-  </si>
-  <si>
-    <t>204053839</t>
-  </si>
-  <si>
-    <t>480646604</t>
-  </si>
-  <si>
-    <t>554757210</t>
-  </si>
-  <si>
-    <t>832816127</t>
-  </si>
-  <si>
-    <t>375222878</t>
-  </si>
-  <si>
-    <t>243285415</t>
-  </si>
-  <si>
-    <t>324618593</t>
-  </si>
-  <si>
-    <t>655683102</t>
-  </si>
-  <si>
-    <t>496539344</t>
-  </si>
-  <si>
-    <t>261598098</t>
-  </si>
-  <si>
-    <t>297073690</t>
-  </si>
-  <si>
-    <t>233373965</t>
-  </si>
-  <si>
-    <t>347418818</t>
-  </si>
-  <si>
-    <t>517661730</t>
-  </si>
-  <si>
-    <t>279267689</t>
-  </si>
-  <si>
-    <t>394551300</t>
-  </si>
-  <si>
-    <t>881066104</t>
-  </si>
-  <si>
-    <t>188692296</t>
-  </si>
-  <si>
-    <t>378843516</t>
-  </si>
-  <si>
-    <t>368861090</t>
-  </si>
-  <si>
-    <t>787803437</t>
-  </si>
-  <si>
-    <t>861247883</t>
-  </si>
-  <si>
-    <t>355254656</t>
-  </si>
-  <si>
-    <t>757968824</t>
-  </si>
-  <si>
-    <t>250694248</t>
-  </si>
-  <si>
-    <t>324045866</t>
-  </si>
-  <si>
-    <t>311065017</t>
-  </si>
-  <si>
-    <t>683096572</t>
-  </si>
-  <si>
-    <t>631770816</t>
-  </si>
-  <si>
-    <t>975662774</t>
-  </si>
-  <si>
-    <t>711978315</t>
-  </si>
-  <si>
-    <t>663124502</t>
-  </si>
-  <si>
-    <t>557208765</t>
-  </si>
-  <si>
-    <t>981475380</t>
-  </si>
-  <si>
-    <t>690484925</t>
-  </si>
-  <si>
-    <t>222633134</t>
-  </si>
-  <si>
-    <t>627604304</t>
-  </si>
-  <si>
-    <t>VO GIA MINH</t>
-  </si>
-  <si>
-    <t>34563333336985</t>
-  </si>
-  <si>
-    <t>34568888887558</t>
-  </si>
-  <si>
-    <t>45671111112548</t>
-  </si>
-  <si>
-    <t>45671111112684</t>
-  </si>
-  <si>
-    <t>67892222224738</t>
-  </si>
-  <si>
-    <t>TRAN THI KIM SANH</t>
-  </si>
-  <si>
-    <t>67893333338011</t>
-  </si>
-  <si>
-    <t>VO DINH CANH</t>
-  </si>
-  <si>
-    <t>12346666665801</t>
-  </si>
-  <si>
-    <t>45672222226949</t>
-  </si>
-  <si>
-    <t>45672222228409</t>
-  </si>
-  <si>
-    <t>NGUYEN GIA PHUC</t>
-  </si>
-  <si>
-    <t>45672222228417</t>
-  </si>
-  <si>
-    <t>45674444443431</t>
-  </si>
-  <si>
-    <t>NGUYEN THUY HANG</t>
-  </si>
-  <si>
-    <t>23457777771844</t>
-  </si>
-  <si>
-    <t>34563333336689</t>
-  </si>
-  <si>
-    <t>45671111117839</t>
-  </si>
-  <si>
-    <t>45672222228411</t>
-  </si>
-  <si>
-    <t>45679999991636</t>
-  </si>
-  <si>
-    <t>56782222224513</t>
-  </si>
-  <si>
-    <t>56782222224691</t>
-  </si>
-  <si>
-    <t>HO THI DIEU VUONG</t>
-  </si>
-  <si>
-    <t>34563333335589</t>
-  </si>
-  <si>
-    <t>45672222221744</t>
-  </si>
-  <si>
-    <t>45672222221755</t>
-  </si>
-  <si>
-    <t>45672222226799</t>
-  </si>
-  <si>
-    <t>45673333339799</t>
-  </si>
-  <si>
-    <t>56781111115808</t>
-  </si>
-  <si>
-    <t>DINH DUC HAO</t>
-  </si>
-  <si>
-    <t>23451111116740</t>
-  </si>
-  <si>
-    <t>34563333334299</t>
-  </si>
-  <si>
-    <t>34563333339676</t>
-  </si>
-  <si>
-    <t>34568888886391</t>
-  </si>
-  <si>
-    <t>34568888887964</t>
-  </si>
-  <si>
-    <t>45672222223119</t>
-  </si>
-  <si>
-    <t>45672222228403</t>
-  </si>
-  <si>
-    <t>DO THI VANG</t>
-  </si>
-  <si>
-    <t>23458888889102</t>
-  </si>
-  <si>
-    <t>45672222226958</t>
-  </si>
-  <si>
-    <t>45672222226988</t>
-  </si>
-  <si>
-    <t>45673333336679</t>
-  </si>
-  <si>
-    <t>45674444441589</t>
-  </si>
-  <si>
-    <t>56784444449017</t>
-  </si>
-  <si>
-    <t>NGUYEN TUAN KIET</t>
-  </si>
-  <si>
-    <t>12349999993480</t>
-  </si>
-  <si>
-    <t>23457777779103</t>
-  </si>
-  <si>
-    <t>45672222226867</t>
-  </si>
-  <si>
-    <t>45672222228408</t>
-  </si>
-  <si>
-    <t>45673333332679</t>
-  </si>
-  <si>
-    <t>45673333332949</t>
-  </si>
-  <si>
-    <t>45673333337664</t>
-  </si>
-  <si>
-    <t>45674444446111</t>
-  </si>
-  <si>
-    <t>45679999991052</t>
-  </si>
-  <si>
-    <t>NGUYEN THI THUY</t>
-  </si>
-  <si>
-    <t>4706666666789</t>
-  </si>
-  <si>
-    <t>NGUYEN KIM TRUNG</t>
-  </si>
-  <si>
-    <t>34568888883743</t>
-  </si>
-  <si>
-    <t>NGUYEN QUOC KHANH</t>
-  </si>
-  <si>
-    <t>23459999994510</t>
-  </si>
-  <si>
-    <t>45673333339033</t>
-  </si>
-  <si>
-    <t>NGO TIEN DAT</t>
-  </si>
-  <si>
-    <t>23032005333</t>
-  </si>
-  <si>
-    <t>NGUYEN QUOC DAT</t>
-  </si>
-  <si>
-    <t>0848142433</t>
-  </si>
-  <si>
-    <t>12348888887932</t>
+    <t>HO HUY LUAT</t>
+  </si>
+  <si>
+    <t>TRAN KE QUANG</t>
+  </si>
+  <si>
+    <t>NGUYEN VAN THANH</t>
+  </si>
+  <si>
+    <t>NGUYEN QUANG VINH</t>
+  </si>
+  <si>
+    <t>TRUONG TRAN GIA HUNG</t>
+  </si>
+  <si>
+    <t>DIEP BAO TUNG</t>
+  </si>
+  <si>
+    <t>TRAN CONG TIEN</t>
+  </si>
+  <si>
+    <t>PHAM HOANG TRONG</t>
+  </si>
+  <si>
+    <t>THAI THANH NAM</t>
+  </si>
+  <si>
+    <t>TO THANH PHONG</t>
+  </si>
+  <si>
+    <t>LAM TAM NHU</t>
+  </si>
+  <si>
+    <t>NGUYEN HOANG PHUC</t>
+  </si>
+  <si>
+    <t>DIEP TAN LUAN</t>
+  </si>
+  <si>
+    <t>NGUYEN PHUC AN</t>
+  </si>
+  <si>
+    <t>TA QUOC ANH</t>
+  </si>
+  <si>
+    <t>TRAN LUU THE ANH</t>
+  </si>
+  <si>
+    <t>TRAN VIET ANH</t>
+  </si>
+  <si>
+    <t>TRAN NHAT THIEN AN</t>
+  </si>
+  <si>
+    <t>LE QUOC BAO</t>
+  </si>
+  <si>
+    <t>NGUYEN THE BAO</t>
+  </si>
+  <si>
+    <t>THAI DUY BAO</t>
+  </si>
+  <si>
+    <t>HUYNH LY BANG</t>
+  </si>
+  <si>
+    <t>LE VAN CUONG</t>
+  </si>
+  <si>
+    <t>NGUYEN QUOC DANH</t>
+  </si>
+  <si>
+    <t>LE THI NGOC DIEM</t>
+  </si>
+  <si>
+    <t>TRINH LE HOANG DU</t>
+  </si>
+  <si>
+    <t>TRAN TIEN DUNG</t>
+  </si>
+  <si>
+    <t>PHAM PHONG DUY</t>
+  </si>
+  <si>
+    <t>TRAN BAO DUY</t>
+  </si>
+  <si>
+    <t>VO TRUONG DUY</t>
+  </si>
+  <si>
+    <t>LE HAI DUONG</t>
+  </si>
+  <si>
+    <t>NGUYEN DUY DUONG</t>
+  </si>
+  <si>
+    <t>PHAM NGUYEN HAI DUONG</t>
+  </si>
+  <si>
+    <t>PHAM QUANG DUONG</t>
+  </si>
+  <si>
+    <t>LE NGUYEN TRUONG GIANG</t>
+  </si>
+  <si>
+    <t>NGUYEN HUYNH THANH HAI</t>
+  </si>
+  <si>
+    <t>NGUYEN THAI HAI</t>
+  </si>
+  <si>
+    <t>NGUYEN TAN HAO</t>
+  </si>
+  <si>
+    <t>LE VU HAO</t>
+  </si>
+  <si>
+    <t>LE TRAN THANH HAN</t>
+  </si>
+  <si>
+    <t>VO VAN HAU</t>
+  </si>
+  <si>
+    <t>DUONG THE HIEU</t>
+  </si>
+  <si>
+    <t>NGUYEN HUU HIEU</t>
+  </si>
+  <si>
+    <t>LE NGUYEN VIET HUNG</t>
+  </si>
+  <si>
+    <t>PHAN GIA HUY</t>
+  </si>
+  <si>
+    <t>TRAN XUAN HUY</t>
+  </si>
+  <si>
+    <t>TRAN THI MY HUYEN</t>
+  </si>
+  <si>
+    <t>PHAM QUANG HUNG</t>
+  </si>
+  <si>
+    <t>TRAN KIEN KHANG</t>
+  </si>
+  <si>
+    <t>TRAN QUANG KHANH</t>
+  </si>
+  <si>
+    <t>TRINH NGOC KHANH</t>
+  </si>
+  <si>
+    <t>NGUYEN XUAN KHOA</t>
+  </si>
+  <si>
+    <t>TRAN NGO NHAT KHUONG</t>
+  </si>
+  <si>
+    <t>LE TRUNG KIEN</t>
+  </si>
+  <si>
+    <t>PHAM TRUNG KIEN</t>
+  </si>
+  <si>
+    <t>BUI VAN TUAN KIET</t>
+  </si>
+  <si>
+    <t>NGUYEN TAN KIET</t>
+  </si>
+  <si>
+    <t>PHAN NGUYEN CHU KIET</t>
+  </si>
+  <si>
+    <t>LE NGUYEN THE LINH</t>
+  </si>
+  <si>
+    <t>LUONG BICH LONG</t>
+  </si>
+  <si>
+    <t>TRAN HOANG LONG</t>
+  </si>
+  <si>
+    <t>PHAM NGUYEN QUANG LOC</t>
+  </si>
+  <si>
+    <t>NGUYEN HUU LUAN</t>
+  </si>
+  <si>
+    <t>NGUYEN MINH LUAN</t>
+  </si>
+  <si>
+    <t>PHAM MINH MAN</t>
+  </si>
+  <si>
+    <t>NGUYEN VAN MINH</t>
+  </si>
+  <si>
+    <t>TA BAO MINH</t>
+  </si>
+  <si>
+    <t>DUONG VAN NAM</t>
+  </si>
+  <si>
+    <t>HO HUU NAM</t>
+  </si>
+  <si>
+    <t>NGUYEN PHUONG NAM</t>
+  </si>
+  <si>
+    <t>VO THAP NGHIA</t>
+  </si>
+  <si>
+    <t>NGUYEN PHUC NGHIEM</t>
+  </si>
+  <si>
+    <t>NGUYEN BAO NGOC</t>
+  </si>
+  <si>
+    <t>NGUYEN KIM NGUYEN</t>
+  </si>
+  <si>
+    <t>NGUYEN PHAM HOANG NGUYEN</t>
+  </si>
+  <si>
+    <t>NGUYEN TRAN LE NGUYEN</t>
+  </si>
+  <si>
+    <t>TRAN THAI NGUYEN</t>
+  </si>
+  <si>
+    <t>LE THI MINH NGUYET</t>
+  </si>
+  <si>
+    <t>LE TRAN THAI NHAN</t>
+  </si>
+  <si>
+    <t>NGUYEN HUU THIEN NHAN</t>
+  </si>
+  <si>
+    <t>NGUYEN THANH NHAT</t>
+  </si>
+  <si>
+    <t>NGUYEN MINH NHAT</t>
+  </si>
+  <si>
+    <t>VU MINH NHAT</t>
+  </si>
+  <si>
+    <t>HUYNH CAO THAO NHI</t>
+  </si>
+  <si>
+    <t>LE THI THANH NHI</t>
+  </si>
+  <si>
+    <t>NGUYEN VAN OAI</t>
+  </si>
+  <si>
+    <t>LE NGOC PHAT</t>
+  </si>
+  <si>
+    <t>LAI QUANG PHAT</t>
+  </si>
+  <si>
+    <t>VO NHAT PHI</t>
+  </si>
+  <si>
+    <t>HUYNH LAI PHU</t>
+  </si>
+  <si>
+    <t>NGUYEN ANH PHU</t>
+  </si>
+  <si>
+    <t>NGUYEN VAN PHU</t>
+  </si>
+  <si>
+    <t>TRAN PHUOC PHU</t>
+  </si>
+  <si>
+    <t>LAM HOANG PHUC</t>
+  </si>
+  <si>
+    <t>PHAN VINH PHUC</t>
+  </si>
+  <si>
+    <t>NGUYEN THANH PHUOC</t>
+  </si>
+  <si>
+    <t>THAI VAN MINH PHUONG</t>
+  </si>
+  <si>
+    <t>TRAN DUY PHUONG</t>
+  </si>
+  <si>
+    <t>TRINH XUAN PHUONG</t>
+  </si>
+  <si>
+    <t>TRUONG NGOC PHUONG</t>
+  </si>
+  <si>
+    <t>TRAN NHAT QUANG</t>
+  </si>
+  <si>
+    <t>TRAN QUANG</t>
+  </si>
+  <si>
+    <t>NGUYEN HONG QUAN</t>
+  </si>
+  <si>
+    <t>LE MINH SANG</t>
+  </si>
+  <si>
+    <t>NGUYEN QUANG SANG</t>
+  </si>
+  <si>
+    <t>NGUYEN VU ANH SANG</t>
+  </si>
+  <si>
+    <t>CAO TRUONG SON</t>
+  </si>
+  <si>
+    <t>PHAN THANH TAI</t>
+  </si>
+  <si>
+    <t>PHAM QUI TAM</t>
+  </si>
+  <si>
+    <t>CAO HOAI TAN</t>
+  </si>
+  <si>
+    <t>TON THIEN THACH</t>
+  </si>
+  <si>
+    <t>NINH PHAM TRUNG THANH</t>
+  </si>
+  <si>
+    <t>PHAN TAN THANH</t>
+  </si>
+  <si>
+    <t>TRAN TRUNG THANH</t>
+  </si>
+  <si>
+    <t>NGUYEN THI THU THAO</t>
+  </si>
+  <si>
+    <t>HOANG MINH THANG</t>
+  </si>
+  <si>
+    <t>PHAM VAN THANG</t>
+  </si>
+  <si>
+    <t>TRAN MANH THANG</t>
+  </si>
+  <si>
+    <t>HUYNH MINH THIEN</t>
+  </si>
+  <si>
+    <t>PHAM TUAN THU</t>
+  </si>
+  <si>
+    <t>NGUYEN CONG TIEN</t>
+  </si>
+  <si>
+    <t>TRAN ANH TIEN</t>
+  </si>
+  <si>
+    <t>DUONG VAN NGOC TIN</t>
+  </si>
+  <si>
+    <t>HOANG TRAN HUU TIN</t>
+  </si>
+  <si>
+    <t>NGUYEN HUU TIN</t>
+  </si>
+  <si>
+    <t>PHAN TRUNG TIN</t>
+  </si>
+  <si>
+    <t>VU TRUNG TIN</t>
+  </si>
+  <si>
+    <t>BUI VAN TINH</t>
+  </si>
+  <si>
+    <t>NGUYEN PHUC THANH TOAN</t>
+  </si>
+  <si>
+    <t>VO VAN SONG TOAN</t>
+  </si>
+  <si>
+    <t>NGUYEN CAO TRI</t>
+  </si>
+  <si>
+    <t>VO MINH TRI</t>
+  </si>
+  <si>
+    <t>TRAN VAN TRIET</t>
+  </si>
+  <si>
+    <t>LE HOANG TRONG</t>
+  </si>
+  <si>
+    <t>PHAN NGUYEN THANH TRUC</t>
+  </si>
+  <si>
+    <t>LUONG QUOC TRUNG</t>
+  </si>
+  <si>
+    <t>NGUYEN NGOC TRUNG</t>
+  </si>
+  <si>
+    <t>NGUYEN VAN TRUONG</t>
+  </si>
+  <si>
+    <t>TRINH CONG TRUONG</t>
+  </si>
+  <si>
+    <t>LE VAN TUAN</t>
+  </si>
+  <si>
+    <t>NGUYEN ANH TUAN</t>
+  </si>
+  <si>
+    <t>LAI KHANH TUNG</t>
+  </si>
+  <si>
+    <t>VU CONG TUYEN</t>
+  </si>
+  <si>
+    <t>PHAM VAN VINH</t>
+  </si>
+  <si>
+    <t>VO THANH VINH</t>
+  </si>
+  <si>
+    <t>DUONG NGUYEN HUY VU</t>
+  </si>
+  <si>
+    <t>TRAN HUU KHANH VY</t>
+  </si>
+  <si>
+    <t>HOANG VAN TIEN</t>
+  </si>
+  <si>
+    <t>CHAU DANH MAI</t>
+  </si>
+  <si>
+    <t>NGUYEN QUOC BAO</t>
+  </si>
+  <si>
+    <t>NGUYEN DUY PHUOC</t>
+  </si>
+  <si>
+    <t>DUONG THANH TUAN</t>
+  </si>
+  <si>
+    <t>PHAM THANH BACH</t>
+  </si>
+  <si>
+    <t>LUU GIA BAO</t>
+  </si>
+  <si>
+    <t>TON THAT GIA BAO</t>
+  </si>
+  <si>
+    <t>TRAN NGUYEN THAI BAO</t>
+  </si>
+  <si>
+    <t>HO NGOC BIEN</t>
+  </si>
+  <si>
+    <t>NGUYEN TAN CUONG</t>
+  </si>
+  <si>
+    <t>VO HOANG KHA DIEU</t>
+  </si>
+  <si>
+    <t>LY QUOC DUNG</t>
+  </si>
+  <si>
+    <t>TRAN VAN DUY</t>
+  </si>
+  <si>
+    <t>0479588076</t>
+  </si>
+  <si>
+    <t>0248352748</t>
+  </si>
+  <si>
+    <t>0915756895</t>
+  </si>
+  <si>
+    <t>0674625205</t>
+  </si>
+  <si>
+    <t>0620044121</t>
+  </si>
+  <si>
+    <t>0580527467</t>
+  </si>
+  <si>
+    <t>0174483764</t>
+  </si>
+  <si>
+    <t>0396218757</t>
+  </si>
+  <si>
+    <t>0384606527</t>
+  </si>
+  <si>
+    <t>0819733673</t>
+  </si>
+  <si>
+    <t>0276315052</t>
+  </si>
+  <si>
+    <t>0237894704</t>
+  </si>
+  <si>
+    <t>0506202781</t>
+  </si>
+  <si>
+    <t>0279775807</t>
+  </si>
+  <si>
+    <t>0660150579</t>
+  </si>
+  <si>
+    <t>0491496742</t>
+  </si>
+  <si>
+    <t>0647528263</t>
+  </si>
+  <si>
+    <t>0215192023</t>
+  </si>
+  <si>
+    <t>0971370825</t>
+  </si>
+  <si>
+    <t>0912269844</t>
+  </si>
+  <si>
+    <t>0558941090</t>
+  </si>
+  <si>
+    <t>0222281182</t>
+  </si>
+  <si>
+    <t>0854251916</t>
+  </si>
+  <si>
+    <t>0782921025</t>
+  </si>
+  <si>
+    <t>0967074212</t>
+  </si>
+  <si>
+    <t>0556834689</t>
+  </si>
+  <si>
+    <t>0651598007</t>
+  </si>
+  <si>
+    <t>0711618529</t>
+  </si>
+  <si>
+    <t>0520472031</t>
+  </si>
+  <si>
+    <t>0422528057</t>
+  </si>
+  <si>
+    <t>0801874061</t>
+  </si>
+  <si>
+    <t>0824221360</t>
+  </si>
+  <si>
+    <t>0247899498</t>
+  </si>
+  <si>
+    <t>0642434568</t>
+  </si>
+  <si>
+    <t>0478462598</t>
+  </si>
+  <si>
+    <t>0550093474</t>
+  </si>
+  <si>
+    <t>0697645066</t>
+  </si>
+  <si>
+    <t>0734629698</t>
+  </si>
+  <si>
+    <t>0464452491</t>
+  </si>
+  <si>
+    <t>0767697337</t>
+  </si>
+  <si>
+    <t>0777701272</t>
+  </si>
+  <si>
+    <t>0826917957</t>
+  </si>
+  <si>
+    <t>0955152952</t>
+  </si>
+  <si>
+    <t>0337446264</t>
+  </si>
+  <si>
+    <t>0418269586</t>
+  </si>
+  <si>
+    <t>0731998218</t>
+  </si>
+  <si>
+    <t>0818198857</t>
+  </si>
+  <si>
+    <t>0671690605</t>
+  </si>
+  <si>
+    <t>0862931369</t>
+  </si>
+  <si>
+    <t>0307335228</t>
+  </si>
+  <si>
+    <t>0151010307</t>
+  </si>
+  <si>
+    <t>0419664694</t>
+  </si>
+  <si>
+    <t>0885279039</t>
+  </si>
+  <si>
+    <t>0721400502</t>
+  </si>
+  <si>
+    <t>0535264162</t>
+  </si>
+  <si>
+    <t>0245394337</t>
+  </si>
+  <si>
+    <t>0968252140</t>
+  </si>
+  <si>
+    <t>0550897796</t>
+  </si>
+  <si>
+    <t>0531265213</t>
+  </si>
+  <si>
+    <t>0160072448</t>
+  </si>
+  <si>
+    <t>0696096862</t>
+  </si>
+  <si>
+    <t>0408760993</t>
+  </si>
+  <si>
+    <t>0348333283</t>
+  </si>
+  <si>
+    <t>0270583293</t>
+  </si>
+  <si>
+    <t>0627097204</t>
+  </si>
+  <si>
+    <t>0383442664</t>
+  </si>
+  <si>
+    <t>0603885618</t>
+  </si>
+  <si>
+    <t>0789363144</t>
+  </si>
+  <si>
+    <t>0961232010</t>
+  </si>
+  <si>
+    <t>0845183775</t>
+  </si>
+  <si>
+    <t>0754900215</t>
+  </si>
+  <si>
+    <t>0939847720</t>
+  </si>
+  <si>
+    <t>0946253285</t>
+  </si>
+  <si>
+    <t>0477907797</t>
+  </si>
+  <si>
+    <t>0262008696</t>
+  </si>
+  <si>
+    <t>0319707717</t>
+  </si>
+  <si>
+    <t>0733909708</t>
+  </si>
+  <si>
+    <t>0392777088</t>
+  </si>
+  <si>
+    <t>0273029950</t>
+  </si>
+  <si>
+    <t>0573136829</t>
+  </si>
+  <si>
+    <t>0194046638</t>
+  </si>
+  <si>
+    <t>0537957269</t>
+  </si>
+  <si>
+    <t>0922650824</t>
+  </si>
+  <si>
+    <t>0540296382</t>
+  </si>
+  <si>
+    <t>0129209468</t>
+  </si>
+  <si>
+    <t>0560974915</t>
+  </si>
+  <si>
+    <t>0793745926</t>
+  </si>
+  <si>
+    <t>0174417128</t>
+  </si>
+  <si>
+    <t>0406161961</t>
+  </si>
+  <si>
+    <t>0249672675</t>
+  </si>
+  <si>
+    <t>0451279165</t>
+  </si>
+  <si>
+    <t>0111676064</t>
+  </si>
+  <si>
+    <t>0288960617</t>
+  </si>
+  <si>
+    <t>0452938644</t>
+  </si>
+  <si>
+    <t>0130737048</t>
+  </si>
+  <si>
+    <t>0845807121</t>
+  </si>
+  <si>
+    <t>0498676956</t>
+  </si>
+  <si>
+    <t>0185338975</t>
+  </si>
+  <si>
+    <t>0861828121</t>
+  </si>
+  <si>
+    <t>0442911196</t>
+  </si>
+  <si>
+    <t>0237533971</t>
+  </si>
+  <si>
+    <t>0561622678</t>
+  </si>
+  <si>
+    <t>0979190451</t>
+  </si>
+  <si>
+    <t>0854326700</t>
+  </si>
+  <si>
+    <t>0489006995</t>
+  </si>
+  <si>
+    <t>0843352112</t>
+  </si>
+  <si>
+    <t>0781744006</t>
+  </si>
+  <si>
+    <t>0591151254</t>
+  </si>
+  <si>
+    <t>0673668772</t>
+  </si>
+  <si>
+    <t>0432864489</t>
+  </si>
+  <si>
+    <t>0828888406</t>
+  </si>
+  <si>
+    <t>0257511903</t>
+  </si>
+  <si>
+    <t>0758787836</t>
+  </si>
+  <si>
+    <t>0897165217</t>
+  </si>
+  <si>
+    <t>0893863433</t>
+  </si>
+  <si>
+    <t>0312077149</t>
+  </si>
+  <si>
+    <t>0965695763</t>
+  </si>
+  <si>
+    <t>0712860699</t>
+  </si>
+  <si>
+    <t>0487819645</t>
+  </si>
+  <si>
+    <t>0771922167</t>
+  </si>
+  <si>
+    <t>0959390663</t>
+  </si>
+  <si>
+    <t>0392856989</t>
+  </si>
+  <si>
+    <t>0122486624</t>
+  </si>
+  <si>
+    <t>0389698737</t>
+  </si>
+  <si>
+    <t>0728628888</t>
+  </si>
+  <si>
+    <t>0764056704</t>
+  </si>
+  <si>
+    <t>0650332690</t>
+  </si>
+  <si>
+    <t>0346346179</t>
+  </si>
+  <si>
+    <t>0716319429</t>
+  </si>
+  <si>
+    <t>0634905232</t>
+  </si>
+  <si>
+    <t>0553228976</t>
+  </si>
+  <si>
+    <t>0262864597</t>
+  </si>
+  <si>
+    <t>0694931006</t>
+  </si>
+  <si>
+    <t>0144588866</t>
+  </si>
+  <si>
+    <t>0610525766</t>
+  </si>
+  <si>
+    <t>0790400305</t>
+  </si>
+  <si>
+    <t>0955407413</t>
+  </si>
+  <si>
+    <t>0721971203</t>
+  </si>
+  <si>
+    <t>0187345180</t>
+  </si>
+  <si>
+    <t>0299178544</t>
+  </si>
+  <si>
+    <t>0479647991</t>
+  </si>
+  <si>
+    <t>0913084763</t>
+  </si>
+  <si>
+    <t>0999345603</t>
+  </si>
+  <si>
+    <t>0809214398</t>
+  </si>
+  <si>
+    <t>0451507089</t>
+  </si>
+  <si>
+    <t>0694500415</t>
+  </si>
+  <si>
+    <t>0853442683</t>
+  </si>
+  <si>
+    <t>0289239329</t>
+  </si>
+  <si>
+    <t>0840605831</t>
+  </si>
+  <si>
+    <t>0662292144</t>
+  </si>
+  <si>
+    <t>0359716219</t>
+  </si>
+  <si>
+    <t>0924574784</t>
+  </si>
+  <si>
+    <t>0765099804</t>
+  </si>
+  <si>
+    <t>0306325338</t>
+  </si>
+  <si>
+    <t>0552463717</t>
+  </si>
+  <si>
+    <t>0800908589</t>
+  </si>
+  <si>
+    <t>0244694003</t>
+  </si>
+  <si>
+    <t>0222022240</t>
+  </si>
+  <si>
+    <t>0227577942</t>
+  </si>
+  <si>
+    <t>0794290560</t>
+  </si>
+  <si>
+    <t>0964885496</t>
+  </si>
+  <si>
+    <t>0725142127</t>
+  </si>
+  <si>
+    <t>0863218332</t>
+  </si>
+  <si>
+    <t>0935889188</t>
+  </si>
+  <si>
+    <t>0603943938</t>
+  </si>
+  <si>
+    <t>0212666579</t>
+  </si>
+  <si>
+    <t>0261460635</t>
+  </si>
+  <si>
+    <t>0901931696</t>
+  </si>
+  <si>
+    <t>0871471582</t>
+  </si>
+  <si>
+    <t>0851999507</t>
+  </si>
+  <si>
+    <t>0210469587</t>
+  </si>
+  <si>
+    <t>0314676792</t>
+  </si>
+  <si>
+    <t>0433841220</t>
+  </si>
+  <si>
+    <t>0373113718</t>
+  </si>
+  <si>
+    <t>0722145517</t>
+  </si>
+  <si>
+    <t>0459932718</t>
+  </si>
+  <si>
+    <t>0266575872</t>
+  </si>
+  <si>
+    <t>0327169948</t>
+  </si>
+  <si>
+    <t>0973744797</t>
+  </si>
+  <si>
+    <t>0982996814</t>
+  </si>
+  <si>
+    <t>0722325913</t>
+  </si>
+  <si>
+    <t>0412112497</t>
+  </si>
+  <si>
+    <t>0298118831</t>
+  </si>
+  <si>
+    <t>0820205362</t>
+  </si>
+  <si>
+    <t>0277578252</t>
+  </si>
+  <si>
+    <t>0841614189</t>
+  </si>
+  <si>
+    <t>0922251828</t>
+  </si>
+  <si>
+    <t>0568594453</t>
+  </si>
+  <si>
+    <t>0179044988</t>
+  </si>
+  <si>
+    <t>0248500475</t>
+  </si>
+  <si>
+    <t>0758811684</t>
+  </si>
+  <si>
+    <t>0135930122</t>
+  </si>
+  <si>
+    <t>0162935556</t>
+  </si>
+  <si>
+    <t>0156316543</t>
+  </si>
+  <si>
+    <t>0521574813</t>
+  </si>
+  <si>
+    <t>0625345002</t>
+  </si>
+  <si>
+    <t>0289240459</t>
+  </si>
+  <si>
+    <t>0178570007</t>
+  </si>
+  <si>
+    <t>0540619679</t>
+  </si>
+  <si>
+    <t>479588076</t>
+  </si>
+  <si>
+    <t>248352748</t>
+  </si>
+  <si>
+    <t>915756895</t>
+  </si>
+  <si>
+    <t>674625205</t>
+  </si>
+  <si>
+    <t>620044121</t>
+  </si>
+  <si>
+    <t>580527467</t>
+  </si>
+  <si>
+    <t>174483764</t>
+  </si>
+  <si>
+    <t>396218757</t>
+  </si>
+  <si>
+    <t>384606527</t>
+  </si>
+  <si>
+    <t>819733673</t>
+  </si>
+  <si>
+    <t>276315052</t>
+  </si>
+  <si>
+    <t>237894704</t>
+  </si>
+  <si>
+    <t>506202781</t>
+  </si>
+  <si>
+    <t>279775807</t>
+  </si>
+  <si>
+    <t>660150579</t>
+  </si>
+  <si>
+    <t>491496742</t>
+  </si>
+  <si>
+    <t>647528263</t>
+  </si>
+  <si>
+    <t>215192023</t>
+  </si>
+  <si>
+    <t>971370825</t>
+  </si>
+  <si>
+    <t>912269844</t>
+  </si>
+  <si>
+    <t>558941090</t>
+  </si>
+  <si>
+    <t>222281182</t>
+  </si>
+  <si>
+    <t>854251916</t>
+  </si>
+  <si>
+    <t>782921025</t>
+  </si>
+  <si>
+    <t>967074212</t>
+  </si>
+  <si>
+    <t>556834689</t>
+  </si>
+  <si>
+    <t>651598007</t>
+  </si>
+  <si>
+    <t>711618529</t>
+  </si>
+  <si>
+    <t>520472031</t>
+  </si>
+  <si>
+    <t>422528057</t>
+  </si>
+  <si>
+    <t>801874061</t>
+  </si>
+  <si>
+    <t>824221360</t>
+  </si>
+  <si>
+    <t>247899498</t>
+  </si>
+  <si>
+    <t>642434568</t>
+  </si>
+  <si>
+    <t>478462598</t>
+  </si>
+  <si>
+    <t>550093474</t>
+  </si>
+  <si>
+    <t>697645066</t>
+  </si>
+  <si>
+    <t>734629698</t>
+  </si>
+  <si>
+    <t>464452491</t>
+  </si>
+  <si>
+    <t>767697337</t>
+  </si>
+  <si>
+    <t>777701272</t>
+  </si>
+  <si>
+    <t>826917957</t>
+  </si>
+  <si>
+    <t>955152952</t>
+  </si>
+  <si>
+    <t>337446264</t>
+  </si>
+  <si>
+    <t>418269586</t>
+  </si>
+  <si>
+    <t>731998218</t>
+  </si>
+  <si>
+    <t>818198857</t>
+  </si>
+  <si>
+    <t>671690605</t>
+  </si>
+  <si>
+    <t>862931369</t>
+  </si>
+  <si>
+    <t>307335228</t>
+  </si>
+  <si>
+    <t>151010307</t>
+  </si>
+  <si>
+    <t>419664694</t>
+  </si>
+  <si>
+    <t>885279039</t>
+  </si>
+  <si>
+    <t>721400502</t>
+  </si>
+  <si>
+    <t>535264162</t>
+  </si>
+  <si>
+    <t>245394337</t>
+  </si>
+  <si>
+    <t>968252140</t>
+  </si>
+  <si>
+    <t>550897796</t>
+  </si>
+  <si>
+    <t>531265213</t>
+  </si>
+  <si>
+    <t>160072448</t>
+  </si>
+  <si>
+    <t>696096862</t>
+  </si>
+  <si>
+    <t>408760993</t>
+  </si>
+  <si>
+    <t>348333283</t>
+  </si>
+  <si>
+    <t>270583293</t>
+  </si>
+  <si>
+    <t>627097204</t>
+  </si>
+  <si>
+    <t>383442664</t>
+  </si>
+  <si>
+    <t>603885618</t>
+  </si>
+  <si>
+    <t>789363144</t>
+  </si>
+  <si>
+    <t>961232010</t>
+  </si>
+  <si>
+    <t>845183775</t>
+  </si>
+  <si>
+    <t>754900215</t>
+  </si>
+  <si>
+    <t>939847720</t>
+  </si>
+  <si>
+    <t>946253285</t>
+  </si>
+  <si>
+    <t>477907797</t>
+  </si>
+  <si>
+    <t>262008696</t>
+  </si>
+  <si>
+    <t>319707717</t>
+  </si>
+  <si>
+    <t>733909708</t>
+  </si>
+  <si>
+    <t>392777088</t>
+  </si>
+  <si>
+    <t>273029950</t>
+  </si>
+  <si>
+    <t>573136829</t>
+  </si>
+  <si>
+    <t>194046638</t>
+  </si>
+  <si>
+    <t>537957269</t>
+  </si>
+  <si>
+    <t>922650824</t>
+  </si>
+  <si>
+    <t>540296382</t>
+  </si>
+  <si>
+    <t>129209468</t>
+  </si>
+  <si>
+    <t>560974915</t>
+  </si>
+  <si>
+    <t>793745926</t>
+  </si>
+  <si>
+    <t>174417128</t>
+  </si>
+  <si>
+    <t>406161961</t>
+  </si>
+  <si>
+    <t>249672675</t>
+  </si>
+  <si>
+    <t>451279165</t>
+  </si>
+  <si>
+    <t>111676064</t>
+  </si>
+  <si>
+    <t>288960617</t>
+  </si>
+  <si>
+    <t>452938644</t>
+  </si>
+  <si>
+    <t>130737048</t>
+  </si>
+  <si>
+    <t>845807121</t>
+  </si>
+  <si>
+    <t>498676956</t>
+  </si>
+  <si>
+    <t>185338975</t>
+  </si>
+  <si>
+    <t>861828121</t>
+  </si>
+  <si>
+    <t>442911196</t>
+  </si>
+  <si>
+    <t>237533971</t>
+  </si>
+  <si>
+    <t>561622678</t>
+  </si>
+  <si>
+    <t>979190451</t>
+  </si>
+  <si>
+    <t>854326700</t>
+  </si>
+  <si>
+    <t>489006995</t>
+  </si>
+  <si>
+    <t>843352112</t>
+  </si>
+  <si>
+    <t>781744006</t>
+  </si>
+  <si>
+    <t>591151254</t>
+  </si>
+  <si>
+    <t>673668772</t>
+  </si>
+  <si>
+    <t>432864489</t>
+  </si>
+  <si>
+    <t>828888406</t>
+  </si>
+  <si>
+    <t>257511903</t>
+  </si>
+  <si>
+    <t>758787836</t>
+  </si>
+  <si>
+    <t>897165217</t>
+  </si>
+  <si>
+    <t>893863433</t>
+  </si>
+  <si>
+    <t>312077149</t>
+  </si>
+  <si>
+    <t>965695763</t>
+  </si>
+  <si>
+    <t>712860699</t>
+  </si>
+  <si>
+    <t>487819645</t>
+  </si>
+  <si>
+    <t>771922167</t>
+  </si>
+  <si>
+    <t>959390663</t>
+  </si>
+  <si>
+    <t>392856989</t>
+  </si>
+  <si>
+    <t>122486624</t>
+  </si>
+  <si>
+    <t>389698737</t>
+  </si>
+  <si>
+    <t>728628888</t>
+  </si>
+  <si>
+    <t>764056704</t>
+  </si>
+  <si>
+    <t>650332690</t>
+  </si>
+  <si>
+    <t>346346179</t>
+  </si>
+  <si>
+    <t>716319429</t>
+  </si>
+  <si>
+    <t>634905232</t>
+  </si>
+  <si>
+    <t>553228976</t>
+  </si>
+  <si>
+    <t>262864597</t>
+  </si>
+  <si>
+    <t>694931006</t>
+  </si>
+  <si>
+    <t>144588866</t>
+  </si>
+  <si>
+    <t>610525766</t>
+  </si>
+  <si>
+    <t>790400305</t>
+  </si>
+  <si>
+    <t>955407413</t>
+  </si>
+  <si>
+    <t>721971203</t>
+  </si>
+  <si>
+    <t>187345180</t>
+  </si>
+  <si>
+    <t>299178544</t>
+  </si>
+  <si>
+    <t>479647991</t>
+  </si>
+  <si>
+    <t>913084763</t>
+  </si>
+  <si>
+    <t>999345603</t>
+  </si>
+  <si>
+    <t>809214398</t>
+  </si>
+  <si>
+    <t>451507089</t>
+  </si>
+  <si>
+    <t>694500415</t>
+  </si>
+  <si>
+    <t>853442683</t>
+  </si>
+  <si>
+    <t>289239329</t>
+  </si>
+  <si>
+    <t>840605831</t>
+  </si>
+  <si>
+    <t>662292144</t>
+  </si>
+  <si>
+    <t>359716219</t>
+  </si>
+  <si>
+    <t>924574784</t>
+  </si>
+  <si>
+    <t>765099804</t>
+  </si>
+  <si>
+    <t>306325338</t>
+  </si>
+  <si>
+    <t>552463717</t>
+  </si>
+  <si>
+    <t>800908589</t>
+  </si>
+  <si>
+    <t>244694003</t>
+  </si>
+  <si>
+    <t>222022240</t>
+  </si>
+  <si>
+    <t>227577942</t>
+  </si>
+  <si>
+    <t>794290560</t>
+  </si>
+  <si>
+    <t>964885496</t>
+  </si>
+  <si>
+    <t>725142127</t>
+  </si>
+  <si>
+    <t>863218332</t>
+  </si>
+  <si>
+    <t>935889188</t>
+  </si>
+  <si>
+    <t>603943938</t>
+  </si>
+  <si>
+    <t>212666579</t>
+  </si>
+  <si>
+    <t>261460635</t>
+  </si>
+  <si>
+    <t>901931696</t>
+  </si>
+  <si>
+    <t>871471582</t>
+  </si>
+  <si>
+    <t>851999507</t>
+  </si>
+  <si>
+    <t>210469587</t>
+  </si>
+  <si>
+    <t>314676792</t>
+  </si>
+  <si>
+    <t>433841220</t>
+  </si>
+  <si>
+    <t>373113718</t>
+  </si>
+  <si>
+    <t>722145517</t>
+  </si>
+  <si>
+    <t>459932718</t>
+  </si>
+  <si>
+    <t>266575872</t>
+  </si>
+  <si>
+    <t>327169948</t>
+  </si>
+  <si>
+    <t>973744797</t>
+  </si>
+  <si>
+    <t>982996814</t>
+  </si>
+  <si>
+    <t>722325913</t>
+  </si>
+  <si>
+    <t>412112497</t>
+  </si>
+  <si>
+    <t>298118831</t>
+  </si>
+  <si>
+    <t>820205362</t>
+  </si>
+  <si>
+    <t>277578252</t>
+  </si>
+  <si>
+    <t>841614189</t>
+  </si>
+  <si>
+    <t>922251828</t>
+  </si>
+  <si>
+    <t>568594453</t>
+  </si>
+  <si>
+    <t>179044988</t>
+  </si>
+  <si>
+    <t>248500475</t>
+  </si>
+  <si>
+    <t>758811684</t>
+  </si>
+  <si>
+    <t>135930122</t>
+  </si>
+  <si>
+    <t>162935556</t>
+  </si>
+  <si>
+    <t>156316543</t>
+  </si>
+  <si>
+    <t>521574813</t>
+  </si>
+  <si>
+    <t>625345002</t>
+  </si>
+  <si>
+    <t>289240459</t>
+  </si>
+  <si>
+    <t>178570007</t>
+  </si>
+  <si>
+    <t>540619679</t>
+  </si>
+  <si>
+    <t>user0ahXFYWQsg@gmail.com</t>
+  </si>
+  <si>
+    <t>userR1GejiBx8B@gmail.com</t>
+  </si>
+  <si>
+    <t>user5DsLvUzDui@gmail.com</t>
+  </si>
+  <si>
+    <t>userUu2MxWIsb2@gmail.com</t>
+  </si>
+  <si>
+    <t>userMZYU964FlV@gmail.com</t>
+  </si>
+  <si>
+    <t>userx6NR6VLeh5@gmail.com</t>
+  </si>
+  <si>
+    <t>userDhxSuQKOJq@gmail.com</t>
+  </si>
+  <si>
+    <t>uservoks3OomxP@gmail.com</t>
+  </si>
+  <si>
+    <t>usereuR8qBIxor@gmail.com</t>
+  </si>
+  <si>
+    <t>userte7fdjHC73@gmail.com</t>
+  </si>
+  <si>
+    <t>usero6w4qMxBS6@gmail.com</t>
+  </si>
+  <si>
+    <t>userjBkZUpVPfF@gmail.com</t>
+  </si>
+  <si>
+    <t>userhKJCJItxZo@gmail.com</t>
+  </si>
+  <si>
+    <t>usermbm1TDefEK@gmail.com</t>
+  </si>
+  <si>
+    <t>user7UNEyAUQgP@gmail.com</t>
+  </si>
+  <si>
+    <t>userFOvcssBeO5@gmail.com</t>
+  </si>
+  <si>
+    <t>user5aB7blQEZx@gmail.com</t>
+  </si>
+  <si>
+    <t>user7rHdN9nkuW@gmail.com</t>
+  </si>
+  <si>
+    <t>userxhzcdzcBB4@gmail.com</t>
+  </si>
+  <si>
+    <t>userwIUHGwGaOw@gmail.com</t>
+  </si>
+  <si>
+    <t>user3rQVxtSXWa@gmail.com</t>
+  </si>
+  <si>
+    <t>userz7H8ZxLgtC@gmail.com</t>
+  </si>
+  <si>
+    <t>userAJtiqDegzC@gmail.com</t>
+  </si>
+  <si>
+    <t>userEvLLpgmF6R@gmail.com</t>
+  </si>
+  <si>
+    <t>userqedf4AwcEW@gmail.com</t>
+  </si>
+  <si>
+    <t>userDFKy4g9HES@gmail.com</t>
+  </si>
+  <si>
+    <t>usern7nnZlmq9g@gmail.com</t>
+  </si>
+  <si>
+    <t>userS6FeXHfXDN@gmail.com</t>
+  </si>
+  <si>
+    <t>userEAg1eCZ69y@gmail.com</t>
+  </si>
+  <si>
+    <t>userJCsgRYXDVr@gmail.com</t>
+  </si>
+  <si>
+    <t>userhNwbgw2joA@gmail.com</t>
+  </si>
+  <si>
+    <t>userWgikq3xVGc@gmail.com</t>
+  </si>
+  <si>
+    <t>useramYmYbMKin@gmail.com</t>
+  </si>
+  <si>
+    <t>userQnABYo7QqP@gmail.com</t>
+  </si>
+  <si>
+    <t>userTKUhonFKk4@gmail.com</t>
+  </si>
+  <si>
+    <t>usertWFZlEGv1v@gmail.com</t>
+  </si>
+  <si>
+    <t>userOrRcVQXJjP@gmail.com</t>
+  </si>
+  <si>
+    <t>userAVnee82jzu@gmail.com</t>
+  </si>
+  <si>
+    <t>userw75oPZY8D9@gmail.com</t>
+  </si>
+  <si>
+    <t>userCXPze3TmNg@gmail.com</t>
+  </si>
+  <si>
+    <t>userGfCADEPdYK@gmail.com</t>
+  </si>
+  <si>
+    <t>users7yUFiFmgh@gmail.com</t>
+  </si>
+  <si>
+    <t>userMobO6BFRTZ@gmail.com</t>
+  </si>
+  <si>
+    <t>usersIt00QOExK@gmail.com</t>
+  </si>
+  <si>
+    <t>userJWhiF8vocs@gmail.com</t>
+  </si>
+  <si>
+    <t>userkpsdpcyw5b@gmail.com</t>
+  </si>
+  <si>
+    <t>userm7b2FyLKJ9@gmail.com</t>
+  </si>
+  <si>
+    <t>usercMzPaK5GkA@gmail.com</t>
+  </si>
+  <si>
+    <t>userir2griB7ET@gmail.com</t>
+  </si>
+  <si>
+    <t>userOiA9GpGGZd@gmail.com</t>
+  </si>
+  <si>
+    <t>usera8S6zzDYPe@gmail.com</t>
+  </si>
+  <si>
+    <t>userg3M2dPCh3t@gmail.com</t>
+  </si>
+  <si>
+    <t>userz2VLwtXTcl@gmail.com</t>
+  </si>
+  <si>
+    <t>userUFzywGME0b@gmail.com</t>
+  </si>
+  <si>
+    <t>userFviDx9LxwF@gmail.com</t>
+  </si>
+  <si>
+    <t>userQtqggtCtRM@gmail.com</t>
+  </si>
+  <si>
+    <t>user8WdZJqnjMo@gmail.com</t>
+  </si>
+  <si>
+    <t>userUnQaoIi6gu@gmail.com</t>
+  </si>
+  <si>
+    <t>userdLYAIP1I6i@gmail.com</t>
+  </si>
+  <si>
+    <t>userYVQHAphzKh@gmail.com</t>
+  </si>
+  <si>
+    <t>user009PWa1CPi@gmail.com</t>
+  </si>
+  <si>
+    <t>userJlCfZWQ3nX@gmail.com</t>
+  </si>
+  <si>
+    <t>userjEuupV4yTH@gmail.com</t>
+  </si>
+  <si>
+    <t>userWdfb04USTP@gmail.com</t>
+  </si>
+  <si>
+    <t>userpdODm7baTw@gmail.com</t>
+  </si>
+  <si>
+    <t>userBkZymcFVb4@gmail.com</t>
+  </si>
+  <si>
+    <t>userGNCirv5dCp@gmail.com</t>
+  </si>
+  <si>
+    <t>userXZV9dHhwXr@gmail.com</t>
+  </si>
+  <si>
+    <t>usereEY5EKhfh1@gmail.com</t>
+  </si>
+  <si>
+    <t>users8Jl8Oms9L@gmail.com</t>
+  </si>
+  <si>
+    <t>user6jWfLR9Hvw@gmail.com</t>
+  </si>
+  <si>
+    <t>userpXlvpVhp8b@gmail.com</t>
+  </si>
+  <si>
+    <t>user49E7OdIPV2@gmail.com</t>
+  </si>
+  <si>
+    <t>user779nZRO5Op@gmail.com</t>
+  </si>
+  <si>
+    <t>useriD84Ok3Z0U@gmail.com</t>
+  </si>
+  <si>
+    <t>userwwYzFkDR7A@gmail.com</t>
+  </si>
+  <si>
+    <t>userls2tXFfFyz@gmail.com</t>
+  </si>
+  <si>
+    <t>userKpQfbi1XGN@gmail.com</t>
+  </si>
+  <si>
+    <t>user4tw3HX5dYe@gmail.com</t>
+  </si>
+  <si>
+    <t>userccJwnGoZ24@gmail.com</t>
+  </si>
+  <si>
+    <t>userPdNHPVyiof@gmail.com</t>
+  </si>
+  <si>
+    <t>userobKd3oQMp0@gmail.com</t>
+  </si>
+  <si>
+    <t>userYxRJorcqBi@gmail.com</t>
+  </si>
+  <si>
+    <t>userOJtkEpqkR0@gmail.com</t>
+  </si>
+  <si>
+    <t>useraLnbBjNdrS@gmail.com</t>
+  </si>
+  <si>
+    <t>user1tVbIYdwg6@gmail.com</t>
+  </si>
+  <si>
+    <t>user1WaFr3BHrQ@gmail.com</t>
+  </si>
+  <si>
+    <t>usersEGMk1RXcs@gmail.com</t>
+  </si>
+  <si>
+    <t>userF48EE1IQr5@gmail.com</t>
+  </si>
+  <si>
+    <t>userd3dHbq7qaW@gmail.com</t>
+  </si>
+  <si>
+    <t>userD7JBE2ub0d@gmail.com</t>
+  </si>
+  <si>
+    <t>userM2XnFBf00o@gmail.com</t>
+  </si>
+  <si>
+    <t>userTpdxoiADxc@gmail.com</t>
+  </si>
+  <si>
+    <t>userMsM1c1jjWh@gmail.com</t>
+  </si>
+  <si>
+    <t>userU3GZ5sa1rH@gmail.com</t>
+  </si>
+  <si>
+    <t>userLzYqJrJjeV@gmail.com</t>
+  </si>
+  <si>
+    <t>userooQBcw9cKP@gmail.com</t>
+  </si>
+  <si>
+    <t>userKZs0gQFwo2@gmail.com</t>
+  </si>
+  <si>
+    <t>userMNHLrx2bcD@gmail.com</t>
+  </si>
+  <si>
+    <t>userH7OiWTNVSH@gmail.com</t>
+  </si>
+  <si>
+    <t>userL1SIwrWjmt@gmail.com</t>
+  </si>
+  <si>
+    <t>userLNLoDa3fNV@gmail.com</t>
+  </si>
+  <si>
+    <t>userb77EbBIcJu@gmail.com</t>
+  </si>
+  <si>
+    <t>userloRCHLvsB4@gmail.com</t>
+  </si>
+  <si>
+    <t>usersY8LbRNbzk@gmail.com</t>
+  </si>
+  <si>
+    <t>userDiko3ZiG76@gmail.com</t>
+  </si>
+  <si>
+    <t>user9pTeyBCS6B@gmail.com</t>
+  </si>
+  <si>
+    <t>usermXuocNBcgh@gmail.com</t>
+  </si>
+  <si>
+    <t>userimipQryyuc@gmail.com</t>
+  </si>
+  <si>
+    <t>usergNr8Lq79ZJ@gmail.com</t>
+  </si>
+  <si>
+    <t>userG9L3IFZBvh@gmail.com</t>
+  </si>
+  <si>
+    <t>userlNbzNE2qch@gmail.com</t>
+  </si>
+  <si>
+    <t>userz9i1Hv92HO@gmail.com</t>
+  </si>
+  <si>
+    <t>userN9cZxyfiMW@gmail.com</t>
+  </si>
+  <si>
+    <t>useruHe4QTzYYj@gmail.com</t>
+  </si>
+  <si>
+    <t>userlOBFSXVdCo@gmail.com</t>
+  </si>
+  <si>
+    <t>userkAMjy6NRq4@gmail.com</t>
+  </si>
+  <si>
+    <t>userZHAf5VKgSO@gmail.com</t>
+  </si>
+  <si>
+    <t>usercnf89qJb3L@gmail.com</t>
+  </si>
+  <si>
+    <t>userDeb7rCcIQL@gmail.com</t>
+  </si>
+  <si>
+    <t>userLvSrJ5kMR2@gmail.com</t>
+  </si>
+  <si>
+    <t>userCa4Z1Ylkus@gmail.com</t>
+  </si>
+  <si>
+    <t>user2r5T4l25Xr@gmail.com</t>
+  </si>
+  <si>
+    <t>userm4CN9cQ1Zy@gmail.com</t>
+  </si>
+  <si>
+    <t>useri6a34x5Tqr@gmail.com</t>
+  </si>
+  <si>
+    <t>userRBN2JywsxO@gmail.com</t>
+  </si>
+  <si>
+    <t>userJJhzrLvkhT@gmail.com</t>
+  </si>
+  <si>
+    <t>userYPuplPEbT8@gmail.com</t>
+  </si>
+  <si>
+    <t>userDnMvv6MyK0@gmail.com</t>
+  </si>
+  <si>
+    <t>userkp8EPNdbb1@gmail.com</t>
+  </si>
+  <si>
+    <t>userRr4Qmbe0Va@gmail.com</t>
+  </si>
+  <si>
+    <t>userRefDyYgJ7q@gmail.com</t>
+  </si>
+  <si>
+    <t>userTy05VEXtQE@gmail.com</t>
+  </si>
+  <si>
+    <t>userj1ZV2y6RIy@gmail.com</t>
+  </si>
+  <si>
+    <t>userHwrLkzVrVA@gmail.com</t>
+  </si>
+  <si>
+    <t>user0zGDiRD2GR@gmail.com</t>
+  </si>
+  <si>
+    <t>userngOJLIgqFr@gmail.com</t>
+  </si>
+  <si>
+    <t>userzjfcF7HqZT@gmail.com</t>
+  </si>
+  <si>
+    <t>user8OONuqQHlB@gmail.com</t>
+  </si>
+  <si>
+    <t>userPEXJOpxq1L@gmail.com</t>
+  </si>
+  <si>
+    <t>userC7CRfq5XWu@gmail.com</t>
+  </si>
+  <si>
+    <t>user474hx3xcZq@gmail.com</t>
+  </si>
+  <si>
+    <t>userWaIV5EQa1H@gmail.com</t>
+  </si>
+  <si>
+    <t>userOvx09XYkfI@gmail.com</t>
+  </si>
+  <si>
+    <t>userecHIcM766K@gmail.com</t>
+  </si>
+  <si>
+    <t>user5NmRUYVVDq@gmail.com</t>
+  </si>
+  <si>
+    <t>userNBhLo9V32h@gmail.com</t>
+  </si>
+  <si>
+    <t>user5K86WZfWfP@gmail.com</t>
+  </si>
+  <si>
+    <t>userpzSmyPcmzn@gmail.com</t>
+  </si>
+  <si>
+    <t>user7irp4FrnC4@gmail.com</t>
+  </si>
+  <si>
+    <t>userbyBoRo22Tc@gmail.com</t>
+  </si>
+  <si>
+    <t>userPHVU7sK5xW@gmail.com</t>
+  </si>
+  <si>
+    <t>userzveLI5hQoP@gmail.com</t>
+  </si>
+  <si>
+    <t>user1cFIarKuNW@gmail.com</t>
+  </si>
+  <si>
+    <t>user9nmMh63l3F@gmail.com</t>
+  </si>
+  <si>
+    <t>userb00Cmh7W2z@gmail.com</t>
+  </si>
+  <si>
+    <t>usero0RlXWrgIR@gmail.com</t>
+  </si>
+  <si>
+    <t>userHOLZSgGh5n@gmail.com</t>
+  </si>
+  <si>
+    <t>userZvm0qSG9DW@gmail.com</t>
+  </si>
+  <si>
+    <t>userCfmBjjxhFf@gmail.com</t>
+  </si>
+  <si>
+    <t>user9fIQUpK6Gt@gmail.com</t>
+  </si>
+  <si>
+    <t>userTc036bNx8j@gmail.com</t>
+  </si>
+  <si>
+    <t>usernpo3zvZs5l@gmail.com</t>
+  </si>
+  <si>
+    <t>userDgbz7GTvdP@gmail.com</t>
+  </si>
+  <si>
+    <t>userMEwVuEIaa9@gmail.com</t>
+  </si>
+  <si>
+    <t>userNEANfEtnzs@gmail.com</t>
+  </si>
+  <si>
+    <t>user7jwYrmVPPH@gmail.com</t>
+  </si>
+  <si>
+    <t>userL2Etxmyjxb@gmail.com</t>
+  </si>
+  <si>
+    <t>user3MRIQx9Ar2@gmail.com</t>
+  </si>
+  <si>
+    <t>user5lkCLJmCTI@gmail.com</t>
+  </si>
+  <si>
+    <t>uservnuBBOFnlD@gmail.com</t>
+  </si>
+  <si>
+    <t>userws5v0YZSHa@gmail.com</t>
+  </si>
+  <si>
+    <t>user8InEAUQ994@gmail.com</t>
+  </si>
+  <si>
+    <t>userWHd77PR2fH@gmail.com</t>
+  </si>
+  <si>
+    <t>userwb9u9Ww2HH@gmail.com</t>
+  </si>
+  <si>
+    <t>userFVHKbhwYUl@gmail.com</t>
+  </si>
+  <si>
+    <t>userZtaNlEr0bW@gmail.com</t>
+  </si>
+  <si>
+    <t>userSuZAHljbqk@gmail.com</t>
+  </si>
+  <si>
+    <t>userwZOiqePgbv@gmail.com</t>
+  </si>
+  <si>
+    <t>userFiRxqzSMmV@gmail.com</t>
+  </si>
+  <si>
+    <t>userzwGsPusTgo@gmail.com</t>
+  </si>
+  <si>
+    <t>userYzcEiTb8NG@gmail.com</t>
+  </si>
+  <si>
+    <t>useredpTQ9H6wo@gmail.com</t>
+  </si>
+  <si>
+    <t>userGO2aVYeFT4@gmail.com</t>
+  </si>
+  <si>
+    <t>user6UxpA39XaS@gmail.com</t>
+  </si>
+  <si>
+    <t>userujO4XfcGVQ@gmail.com</t>
+  </si>
+  <si>
+    <t>userwJ0JgTmu6x@gmail.com</t>
+  </si>
+  <si>
+    <t>userR8RC9qeVmN@gmail.com</t>
+  </si>
+  <si>
+    <t>userZ3Vta8B47v@gmail.com</t>
+  </si>
+  <si>
+    <t>useryDQsFMToJJ@gmail.com</t>
+  </si>
+  <si>
+    <t>userJSKIFfGXtb@gmail.com</t>
+  </si>
+  <si>
+    <t>userRrSgZqwQAc@gmail.com</t>
+  </si>
+  <si>
+    <t>useriRx3c67dT1@gmail.com</t>
+  </si>
+  <si>
+    <t>userkYeAPztg3n@gmail.com</t>
+  </si>
+  <si>
+    <t>user0TCWTKW7VH@gmail.com</t>
+  </si>
+  <si>
+    <t>user9arkIARFal@gmail.com</t>
+  </si>
+  <si>
+    <t>userYnOv1xWomY@gmail.com</t>
+  </si>
+  <si>
+    <t>userD7gCTD6wbF@gmail.com</t>
+  </si>
+  <si>
+    <t>userUyNVlFnIak@gmail.com</t>
+  </si>
+  <si>
+    <t>HUYNH MINH DUC</t>
+  </si>
+  <si>
+    <t>HUYNH DINH THONG</t>
+  </si>
+  <si>
+    <t>DO CAO MINH CHI</t>
+  </si>
+  <si>
+    <t>NGUYEN HIEU DAN</t>
+  </si>
+  <si>
+    <t>VO TAN DAT</t>
+  </si>
+  <si>
+    <t>LE VAN DONG</t>
+  </si>
+  <si>
+    <t>BUI ANH DUC</t>
+  </si>
+  <si>
+    <t>HOANG HUU DUC</t>
+  </si>
+  <si>
+    <t>NGUYEN MINH DUC</t>
+  </si>
+  <si>
+    <t>VO TA DUC</t>
+  </si>
+  <si>
+    <t>DAM LUU TRUNG HIEU</t>
+  </si>
+  <si>
+    <t>PHAM DINH QUOC HOA</t>
+  </si>
+  <si>
+    <t>NGUYEN DAM VINH KHANG</t>
+  </si>
+  <si>
+    <t>BANH DANG KHOA</t>
+  </si>
+  <si>
+    <t>DANG DANG KHOA</t>
+  </si>
+  <si>
+    <t>DO DUY LONG</t>
+  </si>
+  <si>
+    <t>NGUYEN DUC MANH</t>
+  </si>
+  <si>
+    <t>DOAN THANH NGUYEN</t>
+  </si>
+  <si>
+    <t>PHI DINH NGUYEN</t>
+  </si>
+  <si>
+    <t>NGUYEN DAI PHAT</t>
+  </si>
+  <si>
+    <t>DAO QUYET PHONG</t>
+  </si>
+  <si>
+    <t>DANG HUU PHUC</t>
+  </si>
+  <si>
+    <t>NGUYEN DUC SANG</t>
+  </si>
+  <si>
+    <t>NGUYEN DUC THANH</t>
+  </si>
+  <si>
+    <t>DUONG DUC THANG</t>
+  </si>
+  <si>
+    <t>TRAN DONG THINH</t>
+  </si>
+  <si>
+    <t>HUYNH DUC TONG</t>
+  </si>
+  <si>
+    <t>DO QUOC VIET</t>
+  </si>
+  <si>
+    <t>TRINH TAN DAT</t>
+  </si>
+  <si>
+    <t>NGUYEN DANG MINH CHIEU</t>
+  </si>
+  <si>
+    <t>VO DINH VINH CHUONG</t>
+  </si>
+  <si>
+    <t>NGUYEN LE DUC DAT</t>
+  </si>
+  <si>
+    <t>TRAN PHAT DAT</t>
+  </si>
+  <si>
+    <t>VO THANH DAT</t>
+  </si>
+  <si>
+    <t>NGUYEN ANH DAC</t>
+  </si>
+  <si>
+    <t>DO MINH DUC</t>
+  </si>
+  <si>
+    <t>HONG TIEN HAO</t>
+  </si>
+  <si>
+    <t>LE TUAN HIEP</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +2996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873D7A48-6AAD-4875-977B-B5247510D6AE}">
-  <dimension ref="A1:F197"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,60 +3032,54 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>155</v>
-      </c>
+      <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>132</v>
+        <v>426</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>625</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>149</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>427</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>626</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="6" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>134</v>
+        <v>428</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>627</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>22</v>
@@ -1263,76 +3087,70 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>135</v>
+        <v>429</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>628</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>152</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>136</v>
+        <v>430</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>629</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="6" t="s">
-        <v>191</v>
+        <v>824</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>137</v>
+        <v>431</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>630</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>159</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>138</v>
+        <v>432</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>631</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>63</v>
@@ -1340,56 +3158,52 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>230</v>
+        <v>825</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>139</v>
+        <v>433</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>632</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>140</v>
+        <v>434</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>633</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>141</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>141</v>
+        <v>435</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>634</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>52</v>
@@ -1397,76 +3211,70 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>142</v>
+        <v>436</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>635</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>181</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="6" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>143</v>
+        <v>437</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>636</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>127</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="6" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>144</v>
+        <v>438</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>637</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="6" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>145</v>
+        <v>439</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>638</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -1474,56 +3282,52 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>241</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>146</v>
+        <v>440</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>639</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>105</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>147</v>
+        <v>441</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>640</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" s="6" t="s">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>148</v>
+        <v>442</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>641</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>38</v>
@@ -1531,16 +3335,16 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>149</v>
+        <v>443</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>642</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>17</v>
@@ -1548,16 +3352,16 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>150</v>
+        <v>444</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>643</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>38</v>
@@ -1565,16 +3369,16 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>151</v>
+        <v>445</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>644</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>33</v>
@@ -1582,56 +3386,52 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>152</v>
+        <v>446</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>645</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>114</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>153</v>
+        <v>447</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>646</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>154</v>
+        <v>448</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>647</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>7</v>
@@ -1639,96 +3439,88 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>230</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>155</v>
+        <v>449</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>648</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>126</v>
-      </c>
+      <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>200</v>
+        <v>826</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>156</v>
+        <v>450</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>649</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>103</v>
-      </c>
+      <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>157</v>
+        <v>451</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>650</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>158</v>
+        <v>452</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>651</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>168</v>
-      </c>
+      <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>159</v>
+        <v>453</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>652</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>24</v>
@@ -1736,36 +3528,34 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>160</v>
+        <v>454</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
+        <v>653</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>165</v>
-      </c>
+      <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>161</v>
+        <v>455</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>654</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>23</v>
@@ -1773,16 +3563,16 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>162</v>
+        <v>456</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>655</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>33</v>
@@ -1790,36 +3580,34 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>223</v>
+        <v>94</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>163</v>
+        <v>457</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>656</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>154</v>
-      </c>
+      <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>164</v>
+        <v>458</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>657</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>60</v>
@@ -1827,16 +3615,16 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>165</v>
+        <v>459</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>658</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>22</v>
@@ -1844,76 +3632,70 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>166</v>
+        <v>460</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>659</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>151</v>
-      </c>
+      <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>167</v>
+        <v>461</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>660</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>168</v>
+        <v>462</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>661</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>134</v>
-      </c>
+      <c r="A39" s="4"/>
       <c r="B39" s="6" t="s">
-        <v>208</v>
+        <v>827</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>662</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>26</v>
@@ -1921,76 +3703,70 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>242</v>
+        <v>828</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>170</v>
+        <v>464</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>663</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="A41" s="4"/>
       <c r="B41" s="6" t="s">
-        <v>193</v>
+        <v>829</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>171</v>
+        <v>465</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>664</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="A42" s="4"/>
       <c r="B42" s="6" t="s">
-        <v>193</v>
+        <v>830</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>172</v>
+        <v>466</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>665</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="A43" s="4"/>
       <c r="B43" s="6" t="s">
-        <v>185</v>
+        <v>831</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>173</v>
+        <v>467</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>666</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>12</v>
@@ -1998,16 +3774,16 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>249</v>
+        <v>832</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>174</v>
+        <v>468</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
+        <v>667</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>30</v>
@@ -2016,36 +3792,34 @@
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
-        <v>223</v>
+        <v>833</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>175</v>
+        <v>469</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>668</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>138</v>
-      </c>
+      <c r="A46" s="4"/>
       <c r="B46" s="6" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>176</v>
+        <v>470</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>669</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>51</v>
@@ -2053,36 +3827,34 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>177</v>
+        <v>471</v>
       </c>
       <c r="E47" t="s">
-        <v>130</v>
+        <v>670</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>162</v>
-      </c>
+      <c r="A48" s="4"/>
       <c r="B48" s="6" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>178</v>
+        <v>472</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>671</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>65</v>
@@ -2090,16 +3862,16 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>179</v>
+        <v>473</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>672</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>42</v>
@@ -2107,16 +3879,16 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>180</v>
+        <v>474</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>673</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>31</v>
@@ -2124,16 +3896,16 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>181</v>
+        <v>475</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>674</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>29</v>
@@ -2141,821 +3913,2537 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>182</v>
+        <v>476</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>675</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="A53" s="4"/>
       <c r="B53" s="6" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>183</v>
+        <v>477</v>
       </c>
       <c r="E53" t="s">
-        <v>89</v>
+        <v>676</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="A54" s="4"/>
       <c r="B54" s="6" t="s">
-        <v>185</v>
+        <v>834</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>184</v>
+        <v>478</v>
       </c>
       <c r="E54" t="s">
-        <v>79</v>
+        <v>677</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="6"/>
+      <c r="B55" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E55" t="s">
+        <v>678</v>
+      </c>
       <c r="F55" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
+      <c r="B56" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E56" t="s">
+        <v>679</v>
+      </c>
       <c r="F56" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
+      <c r="B57" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E57" t="s">
+        <v>680</v>
+      </c>
       <c r="F57" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
+      <c r="B58" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E58" t="s">
+        <v>681</v>
+      </c>
       <c r="F58" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E59" t="s">
+        <v>682</v>
+      </c>
       <c r="F59" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="6"/>
+      <c r="B60" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E60" t="s">
+        <v>683</v>
+      </c>
       <c r="F60" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="6"/>
+      <c r="B61" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E61" t="s">
+        <v>684</v>
+      </c>
       <c r="F61" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="6"/>
+      <c r="B62" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E62" t="s">
+        <v>685</v>
+      </c>
       <c r="F62" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="6"/>
+      <c r="B63" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E63" t="s">
+        <v>686</v>
+      </c>
       <c r="F63" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="6"/>
+      <c r="B64" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E64" t="s">
+        <v>687</v>
+      </c>
       <c r="F64" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
+      <c r="B65" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E65" t="s">
+        <v>688</v>
+      </c>
       <c r="F65" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="6"/>
+      <c r="B66" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E66" t="s">
+        <v>689</v>
+      </c>
       <c r="F66" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="6"/>
+      <c r="B67" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E67" t="s">
+        <v>690</v>
+      </c>
       <c r="F67" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="6"/>
+      <c r="B68" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E68" t="s">
+        <v>691</v>
+      </c>
       <c r="F68" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="6"/>
+      <c r="B69" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E69" t="s">
+        <v>692</v>
+      </c>
       <c r="F69" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="6"/>
+      <c r="B70" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E70" t="s">
+        <v>693</v>
+      </c>
       <c r="F70" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="6"/>
+      <c r="B71" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E71" t="s">
+        <v>694</v>
+      </c>
       <c r="F71" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="6"/>
+      <c r="B72" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E72" t="s">
+        <v>695</v>
+      </c>
       <c r="F72" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="6"/>
+      <c r="B73" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E73" t="s">
+        <v>696</v>
+      </c>
       <c r="F73" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="6"/>
+      <c r="B74" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E74" t="s">
+        <v>697</v>
+      </c>
       <c r="F74" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="6"/>
+      <c r="B75" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E75" t="s">
+        <v>698</v>
+      </c>
       <c r="F75" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="6"/>
+      <c r="B76" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E76" t="s">
+        <v>699</v>
+      </c>
       <c r="F76" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="6"/>
+      <c r="B77" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E77" t="s">
+        <v>700</v>
+      </c>
       <c r="F77" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="6"/>
+      <c r="B78" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E78" t="s">
+        <v>701</v>
+      </c>
       <c r="F78" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
+      <c r="B79" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E79" t="s">
+        <v>702</v>
+      </c>
       <c r="F79" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="6"/>
+      <c r="B80" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E80" t="s">
+        <v>703</v>
+      </c>
       <c r="F80" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="6"/>
+      <c r="B81" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E81" t="s">
+        <v>704</v>
+      </c>
       <c r="F81" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="6"/>
+      <c r="B82" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E82" t="s">
+        <v>705</v>
+      </c>
       <c r="F82" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="6"/>
+      <c r="B83" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E83" t="s">
+        <v>706</v>
+      </c>
       <c r="F83" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="6"/>
+      <c r="B84" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E84" t="s">
+        <v>707</v>
+      </c>
       <c r="F84" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="6"/>
+      <c r="B85" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E85" t="s">
+        <v>708</v>
+      </c>
       <c r="F85" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="86" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="6"/>
+      <c r="B86" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E86" t="s">
+        <v>709</v>
+      </c>
       <c r="F86" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="87" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="6"/>
+      <c r="B87" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E87" t="s">
+        <v>710</v>
+      </c>
       <c r="F87" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="6"/>
+      <c r="B88" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E88" t="s">
+        <v>711</v>
+      </c>
       <c r="F88" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
+      <c r="B89" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E89" t="s">
+        <v>712</v>
+      </c>
       <c r="F89" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B90" s="6"/>
+      <c r="B90" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E90" t="s">
+        <v>713</v>
+      </c>
       <c r="F90" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B91" s="6"/>
+      <c r="B91" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E91" t="s">
+        <v>714</v>
+      </c>
       <c r="F91" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B92" s="6"/>
+      <c r="B92" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E92" t="s">
+        <v>715</v>
+      </c>
       <c r="F92" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
+      <c r="B93" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E93" t="s">
+        <v>716</v>
+      </c>
       <c r="F93" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B94" s="6"/>
+      <c r="B94" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E94" t="s">
+        <v>717</v>
+      </c>
       <c r="F94" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B95" s="6"/>
+      <c r="B95" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E95" t="s">
+        <v>718</v>
+      </c>
       <c r="F95" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
+      <c r="B96" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E96" t="s">
+        <v>719</v>
+      </c>
       <c r="F96" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
+      <c r="B97" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E97" t="s">
+        <v>720</v>
+      </c>
       <c r="F97" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="6"/>
+      <c r="B98" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E98" t="s">
+        <v>721</v>
+      </c>
       <c r="F98" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B99" s="6"/>
+      <c r="B99" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E99" t="s">
+        <v>722</v>
+      </c>
       <c r="F99" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B100" s="6"/>
+      <c r="B100" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E100" t="s">
+        <v>723</v>
+      </c>
       <c r="F100" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B101" s="6"/>
+      <c r="B101" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E101" t="s">
+        <v>724</v>
+      </c>
       <c r="F101" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>147</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E102" t="s">
+        <v>725</v>
+      </c>
       <c r="F102" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E103" t="s">
+        <v>726</v>
+      </c>
       <c r="F103" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>149</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E104" t="s">
+        <v>727</v>
+      </c>
       <c r="F104" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E105" t="s">
+        <v>728</v>
+      </c>
       <c r="F105" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E106" t="s">
+        <v>729</v>
+      </c>
       <c r="F106" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="107" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E107" t="s">
+        <v>730</v>
+      </c>
       <c r="F107" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E108" t="s">
+        <v>731</v>
+      </c>
       <c r="F108" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>843</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E109" t="s">
+        <v>732</v>
+      </c>
       <c r="F109" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>154</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E110" t="s">
+        <v>733</v>
+      </c>
       <c r="F110" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="111" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>844</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E111" t="s">
+        <v>734</v>
+      </c>
       <c r="F111" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="112" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E112" t="s">
+        <v>735</v>
+      </c>
       <c r="F112" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E113" t="s">
+        <v>736</v>
+      </c>
       <c r="F113" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E114" t="s">
+        <v>737</v>
+      </c>
       <c r="F114" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E115" t="s">
+        <v>738</v>
+      </c>
       <c r="F115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>845</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E116" t="s">
+        <v>739</v>
+      </c>
       <c r="F116" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E117" t="s">
+        <v>740</v>
+      </c>
       <c r="F117" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E118" t="s">
+        <v>741</v>
+      </c>
       <c r="F118" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>161</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E119" t="s">
+        <v>742</v>
+      </c>
       <c r="F119" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="120" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E120" t="s">
+        <v>743</v>
+      </c>
       <c r="F120" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>163</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E121" t="s">
+        <v>744</v>
+      </c>
       <c r="F121" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>164</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E122" t="s">
+        <v>745</v>
+      </c>
       <c r="F122" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>165</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E123" t="s">
+        <v>746</v>
+      </c>
       <c r="F123" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>166</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E124" t="s">
+        <v>747</v>
+      </c>
       <c r="F124" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>167</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E125" t="s">
+        <v>748</v>
+      </c>
       <c r="F125" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>168</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E126" t="s">
+        <v>749</v>
+      </c>
       <c r="F126" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>169</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E127" t="s">
+        <v>750</v>
+      </c>
       <c r="F127" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>170</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E128" t="s">
+        <v>751</v>
+      </c>
       <c r="F128" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>846</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E129" t="s">
+        <v>752</v>
+      </c>
       <c r="F129" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>171</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E130" t="s">
+        <v>753</v>
+      </c>
       <c r="F130" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>172</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E131" t="s">
+        <v>754</v>
+      </c>
       <c r="F131" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>173</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E132" t="s">
+        <v>755</v>
+      </c>
       <c r="F132" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>174</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E133" t="s">
+        <v>756</v>
+      </c>
       <c r="F133" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>175</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E134" t="s">
+        <v>757</v>
+      </c>
       <c r="F134" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>176</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E135" t="s">
+        <v>758</v>
+      </c>
       <c r="F135" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>177</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E136" t="s">
+        <v>759</v>
+      </c>
       <c r="F136" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>178</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E137" t="s">
+        <v>760</v>
+      </c>
       <c r="F137" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="138" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>179</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E138" t="s">
+        <v>761</v>
+      </c>
       <c r="F138" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>847</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E139" t="s">
+        <v>762</v>
+      </c>
       <c r="F139" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>180</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E140" t="s">
+        <v>763</v>
+      </c>
       <c r="F140" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>848</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E141" t="s">
+        <v>764</v>
+      </c>
       <c r="F141" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>181</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E142" t="s">
+        <v>765</v>
+      </c>
       <c r="F142" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>182</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E143" t="s">
+        <v>766</v>
+      </c>
       <c r="F143" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E144" t="s">
+        <v>767</v>
+      </c>
       <c r="F144" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>184</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E145" t="s">
+        <v>768</v>
+      </c>
       <c r="F145" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>849</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E146" t="s">
+        <v>769</v>
+      </c>
       <c r="F146" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>185</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E147" t="s">
+        <v>770</v>
+      </c>
       <c r="F147" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>186</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E148" t="s">
+        <v>771</v>
+      </c>
       <c r="F148" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>187</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E149" t="s">
+        <v>772</v>
+      </c>
       <c r="F149" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>188</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E150" t="s">
+        <v>773</v>
+      </c>
       <c r="F150" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>189</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E151" t="s">
+        <v>774</v>
+      </c>
       <c r="F151" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="152" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>190</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E152" t="s">
+        <v>775</v>
+      </c>
       <c r="F152" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>191</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E153" t="s">
+        <v>776</v>
+      </c>
       <c r="F153" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>192</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E154" t="s">
+        <v>777</v>
+      </c>
       <c r="F154" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>193</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E155" t="s">
+        <v>778</v>
+      </c>
       <c r="F155" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>194</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E156" t="s">
+        <v>779</v>
+      </c>
       <c r="F156" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="157" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>195</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E157" t="s">
+        <v>780</v>
+      </c>
       <c r="F157" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>850</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E158" t="s">
+        <v>781</v>
+      </c>
       <c r="F158" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>196</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E159" t="s">
+        <v>782</v>
+      </c>
       <c r="F159" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>197</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E160" t="s">
+        <v>783</v>
+      </c>
       <c r="F160" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>198</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E161" t="s">
+        <v>784</v>
+      </c>
       <c r="F161" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="162" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>199</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E162" t="s">
+        <v>785</v>
+      </c>
       <c r="F162" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>200</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E163" t="s">
+        <v>786</v>
+      </c>
       <c r="F163" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>201</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E164" t="s">
+        <v>787</v>
+      </c>
       <c r="F164" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>202</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E165" t="s">
+        <v>788</v>
+      </c>
       <c r="F165" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="166" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>203</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E166" t="s">
+        <v>789</v>
+      </c>
       <c r="F166" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>204</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E167" t="s">
+        <v>790</v>
+      </c>
       <c r="F167" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>205</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E168" t="s">
+        <v>791</v>
+      </c>
       <c r="F168" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>206</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E169" t="s">
+        <v>792</v>
+      </c>
       <c r="F169" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>207</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E170" t="s">
+        <v>793</v>
+      </c>
       <c r="F170" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>208</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E171" t="s">
+        <v>794</v>
+      </c>
       <c r="F171" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>851</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E172" t="s">
+        <v>795</v>
+      </c>
       <c r="F172" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>209</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E173" t="s">
+        <v>796</v>
+      </c>
       <c r="F173" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>210</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E174" t="s">
+        <v>797</v>
+      </c>
       <c r="F174" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>211</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E175" t="s">
+        <v>798</v>
+      </c>
       <c r="F175" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="176" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>212</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E176" t="s">
+        <v>799</v>
+      </c>
       <c r="F176" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="177" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>213</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E177" t="s">
+        <v>800</v>
+      </c>
       <c r="F177" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="178" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>214</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E178" t="s">
+        <v>801</v>
+      </c>
       <c r="F178" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>852</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E179" t="s">
+        <v>802</v>
+      </c>
       <c r="F179" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>215</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E180" t="s">
+        <v>803</v>
+      </c>
       <c r="F180" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>216</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E181" t="s">
+        <v>804</v>
+      </c>
       <c r="F181" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>217</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E182" t="s">
+        <v>805</v>
+      </c>
       <c r="F182" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="183" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>853</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E183" t="s">
+        <v>806</v>
+      </c>
       <c r="F183" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>218</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E184" t="s">
+        <v>807</v>
+      </c>
       <c r="F184" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>219</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E185" t="s">
+        <v>808</v>
+      </c>
       <c r="F185" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>220</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E186" t="s">
+        <v>809</v>
+      </c>
       <c r="F186" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>221</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E187" t="s">
+        <v>810</v>
+      </c>
       <c r="F187" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="188" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>222</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E188" t="s">
+        <v>811</v>
+      </c>
       <c r="F188" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>854</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E189" t="s">
+        <v>812</v>
+      </c>
       <c r="F189" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>223</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E190" t="s">
+        <v>813</v>
+      </c>
       <c r="F190" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>224</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E191" t="s">
+        <v>814</v>
+      </c>
       <c r="F191" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="192" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>225</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E192" t="s">
+        <v>815</v>
+      </c>
       <c r="F192" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>226</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E193" t="s">
+        <v>816</v>
+      </c>
       <c r="F193" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>855</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E194" t="s">
+        <v>817</v>
+      </c>
       <c r="F194" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>856</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E195" t="s">
+        <v>818</v>
+      </c>
       <c r="F195" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>857</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E196" t="s">
+        <v>819</v>
+      </c>
       <c r="F196" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>858</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E197" t="s">
+        <v>820</v>
+      </c>
       <c r="F197" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>859</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E198" t="s">
+        <v>821</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>860</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E199" t="s">
+        <v>822</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>861</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E200" t="s">
+        <v>823</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
